--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/DNC-LLC/GBM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9FC8D7D8-80F3-6D46-ABC5-35E0B3BB1E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9C0DA94A-781F-4E8D-AB13-4C8B7C867F49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable-dosing_7119" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1239" uniqueCount="184">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1846" uniqueCount="171">
   <si>
     <t>Study</t>
   </si>
@@ -537,56 +537,17 @@
     <t>Reason</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Enrollment</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>arms</t>
-  </si>
-  <si>
-    <t>aspects</t>
-  </si>
-  <si>
-    <t>shared</t>
-  </si>
-  <si>
-    <t>across</t>
-  </si>
-  <si>
-    <t>of each</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>by all</t>
-  </si>
-  <si>
-    <t>that may</t>
-  </si>
-  <si>
-    <t>vary</t>
-  </si>
-  <si>
-    <t>the arms</t>
-  </si>
-  <si>
-    <t>of a</t>
-  </si>
-  <si>
-    <t>given</t>
+    <t>Number of People</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -738,8 +699,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,12 +903,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <start/>
       <end/>
@@ -1041,6 +1041,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color theme="1"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1086,12 +1106,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1137,7 +1179,59 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1148,6 +1242,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5BE1F00-7C86-4C71-9EAE-ECCFACB9E11D}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{D3BE7780-923D-4844-9487-54D20421F434}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D6446E6F-96E6-4FDA-9E6E-C8F94B11DAFA}" name="NCT"/>
+    <tableColumn id="2" xr3:uid="{219F32C5-29D0-43F1-B33C-6000835F3A7D}" name="Title"/>
+    <tableColumn id="3" xr3:uid="{58450113-1DE1-4B75-8134-A02887FB9278}" name="Phase"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AZ45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:AZ45" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+  <tableColumns count="52">
+    <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
+    <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
+    <tableColumn id="3" xr3:uid="{812D4910-70D1-4BB6-9392-9EE81E6B607E}" name="Enrollment"/>
+    <tableColumn id="4" xr3:uid="{63022E9F-2D81-498D-8C05-BF852023D8B8}" name="Radiation"/>
+    <tableColumn id="5" xr3:uid="{869510A2-1CE0-437C-9ED4-65B04D4A1360}" name="Randomized"/>
+    <tableColumn id="6" xr3:uid="{F4E40E0F-4CAE-4FC5-9996-A7ACCBC67A18}" name="Neo"/>
+    <tableColumn id="7" xr3:uid="{5D968C00-3E31-42C2-878F-22C046888F88}" name="Neo Drug"/>
+    <tableColumn id="8" xr3:uid="{CFE9351B-80D2-4076-A876-FCCF85F79865}" name="Neo Drug Dosage" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{12798B60-8D09-4526-A16E-38207AE0B281}" name="Neo Drug Dosage Unit"/>
+    <tableColumn id="10" xr3:uid="{03B678CC-1932-4A2C-AAB0-73B5893DD292}" name="Surgery"/>
+    <tableColumn id="11" xr3:uid="{FA550D66-7A8A-4FDA-A4AD-2318054511FD}" name="Concomitant"/>
+    <tableColumn id="12" xr3:uid="{7A09DCC4-7932-4B91-8F33-A94219FA4CE7}" name="Concomitant Drug"/>
+    <tableColumn id="13" xr3:uid="{2822EEAD-F303-4226-95BE-8490C4DA6DD0}" name="Concomitant Drug Dosage"/>
+    <tableColumn id="14" xr3:uid="{B4B26398-FA7B-4A39-A1E3-599ED6249D88}" name="Concomitant Drug Dose Unit"/>
+    <tableColumn id="15" xr3:uid="{8A1BD74E-7882-46CC-809B-030854F19129}" name="IV for Concomitant Drug"/>
+    <tableColumn id="16" xr3:uid="{AD92BCF9-0105-4CB1-AAF4-D87AE2562153}" name="Duration of IV for Concomitant Drug"/>
+    <tableColumn id="17" xr3:uid="{A13BDC6B-7929-4EFF-99E6-B5CDC14674E4}" name="Concomitant Temodal2"/>
+    <tableColumn id="18" xr3:uid="{2CA1B52A-7453-4DE2-87E5-F74E8B2266EA}" name=" Concomitant Temodal Dose"/>
+    <tableColumn id="19" xr3:uid="{AB7C6A56-EE94-459D-A8F6-3381425E8DB5}" name="Concomitant Temodal Dose Unit"/>
+    <tableColumn id="20" xr3:uid="{74EFA571-B2A7-46A2-9E15-B8698BFB18EB}" name="Adjuvant"/>
+    <tableColumn id="21" xr3:uid="{B9C7D220-7D77-4400-A952-69BE0E445DC4}" name="Adjuvant TEM"/>
+    <tableColumn id="22" xr3:uid="{88D80F7A-FE33-45B3-8544-A8AEF1CE419D}" name="Adjuvant TEM 1 Dosage"/>
+    <tableColumn id="23" xr3:uid="{FA4CA2BF-4582-4F0F-A8EC-DECF4255A92B}" name="Adjuvant TEM 1 dosage unit"/>
+    <tableColumn id="24" xr3:uid="{A364DFBC-3D25-43CF-8F5E-C12FBB3AC559}" name="Adjuvant TEM 2 Dosage"/>
+    <tableColumn id="25" xr3:uid="{83A3DC9B-6251-4729-A4E9-422B331FE7B9}" name="Adjuvant TEM 2 doage unit"/>
+    <tableColumn id="26" xr3:uid="{45ACFD88-3226-4195-B9A8-01CF37536F97}" name="Adjuvant Drug 1"/>
+    <tableColumn id="27" xr3:uid="{D7852EDD-48F0-4609-B1D9-71766D52B78C}" name="Adjuvant Drug 1 dosage"/>
+    <tableColumn id="28" xr3:uid="{14AF1EFB-BDAD-461F-9D32-E5996FDE9B53}" name="Adjuvant Drug 1 Dosage Unit"/>
+    <tableColumn id="29" xr3:uid="{059113A3-E9A6-436D-AA60-EEBDB4346AB3}" name="IV for Adjuvant Drug 1"/>
+    <tableColumn id="30" xr3:uid="{798D6A95-6184-455D-B283-DB7319C57FC2}" name="Duration of IV for Adjuvant Drug 1"/>
+    <tableColumn id="31" xr3:uid="{6DD3144C-A19B-4C8A-988D-C1038BAB55AF}" name="Adjuvant Drug 2"/>
+    <tableColumn id="32" xr3:uid="{5483EE91-9886-4FA1-8F5A-CEFE732B8732}" name="Adjuvant Drug 2 dosage"/>
+    <tableColumn id="33" xr3:uid="{A298105D-80F1-463D-8D31-E8469624102A}" name="Adjuvant Drug 2 Dosage Unit"/>
+    <tableColumn id="34" xr3:uid="{3CABB373-33DD-42BC-881F-E112BF836832}" name="IV for Adjuvant Drug 2"/>
+    <tableColumn id="35" xr3:uid="{ADD14151-690C-417F-A16C-344BFD191682}" name="Duration of IV for Adjuvant Drug 2"/>
+    <tableColumn id="36" xr3:uid="{4E6231E4-A7F2-4692-9887-3862840C0F1A}" name="SOC"/>
+    <tableColumn id="37" xr3:uid="{3FAE1901-1603-4FE6-90D1-9DB9929165A9}" name="Recurrent"/>
+    <tableColumn id="38" xr3:uid="{FA7C39D3-4DC8-4FEB-9004-173CBECD6AF5}" name="Methylated"/>
+    <tableColumn id="39" xr3:uid="{797513C4-0293-437E-B422-7E50CA0B5045}" name="Treatment Drug 1"/>
+    <tableColumn id="40" xr3:uid="{0B4D2315-E3BB-492D-8A6E-F0277875E6DB}" name="Treatment Drug 1 Dose"/>
+    <tableColumn id="41" xr3:uid="{B920712E-FCE8-4A9A-9240-F1CF94C0D5EA}" name="Treatment Drug 1 Dose Unit"/>
+    <tableColumn id="42" xr3:uid="{F8D5206C-0453-4421-BFE6-9800253508B0}" name="IV for Treatment Drug 1"/>
+    <tableColumn id="43" xr3:uid="{005D02A4-D0E1-425C-8BAA-7E534D81FB8D}" name="Duration of IV for Treatment Drug 1"/>
+    <tableColumn id="44" xr3:uid="{B1BA685E-2E06-4F8D-87B1-8059DBEDC6DB}" name="Oral Injection"/>
+    <tableColumn id="45" xr3:uid="{64F3C59D-BBA5-4CC8-82D8-39C180C9BDF4}" name="Duration of Oral Injection"/>
+    <tableColumn id="46" xr3:uid="{2872E6A9-6B8F-4241-A8FD-797AEF9E585B}" name="Treatment Drug 2"/>
+    <tableColumn id="47" xr3:uid="{30382EC2-BED8-4C7D-B4CA-5CC1A6476039}" name="Dose for Treatment drug 2"/>
+    <tableColumn id="48" xr3:uid="{F432B79C-73D3-4A03-BEAA-9717DB02AAF7}" name="Dosage Unit for Treatment Drug 2"/>
+    <tableColumn id="49" xr3:uid="{7CDC0725-4899-4386-8C3B-586520003C03}" name="IV for treatment drug 2"/>
+    <tableColumn id="50" xr3:uid="{CB136238-FA44-4241-99F2-4F5465EADF7C}" name="Duration of IV for Treatment Drug 2"/>
+    <tableColumn id="51" xr3:uid="{41084609-8915-4406-AFEA-4170D289E825}" name="Universal IV"/>
+    <tableColumn id="52" xr3:uid="{FA548A2F-D194-4D2E-8CB9-F3522B309C6B}" name="Overall Survival (months)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5575AAA7-D95E-4197-9C82-F09ADC5AE257}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D166" xr:uid="{9117CEBF-E6D3-44F7-9FE3-CA1EB339F466}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{74BA0FDB-5710-4882-8060-FAB71C74C8A1}" name="NCT"/>
+    <tableColumn id="2" xr3:uid="{D83BF8D5-0470-4910-910C-F5171F043851}" name="Arm"/>
+    <tableColumn id="3" xr3:uid="{D119BC61-4524-4402-82D9-225E15CA1BC2}" name="Reason"/>
+    <tableColumn id="4" xr3:uid="{211BE37C-9E73-4258-9F0B-526A06D666FD}" name="Number of People"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1446,16 +1626,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1723,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1821,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1919,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2017,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2115,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2213,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2373,7 +2553,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2435,7 +2615,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2497,7 +2677,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2559,7 +2739,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2621,7 +2801,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2683,7 +2863,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2745,7 +2925,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2795,7 +2975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2845,7 +3025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2895,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2945,7 +3125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2995,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -3057,7 +3237,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -3119,7 +3299,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3181,7 +3361,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3243,7 +3423,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -3305,7 +3485,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -3367,7 +3547,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3429,7 +3609,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3491,7 +3671,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3553,7 +3733,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -3615,7 +3795,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -3668,7 +3848,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3721,7 +3901,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -3819,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -3917,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -3982,7 +4162,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -4047,7 +4227,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -4139,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -4234,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -4296,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -4358,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -4420,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -4482,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -4544,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -4606,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -4668,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -4730,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -4792,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4854,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -4916,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -4978,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -5040,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -5102,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5164,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -5226,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -5288,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -5350,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -5412,7 +5592,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -5474,7 +5654,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -5536,7 +5716,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -5598,7 +5778,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -5660,7 +5840,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -5722,7 +5902,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -5784,7 +5964,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -5846,7 +6026,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5908,7 +6088,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -5997,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -6086,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -6175,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -6264,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -6353,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -6442,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -6534,7 +6714,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -6626,7 +6806,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -6718,7 +6898,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -6810,7 +6990,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -6878,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -6946,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -7017,7 +7197,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -7088,7 +7268,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -7159,7 +7339,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -7230,7 +7410,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -7295,7 +7475,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -7360,7 +7540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -7425,7 +7605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -7487,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -7549,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -7611,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -7673,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>123</v>
       </c>
@@ -7744,7 +7924,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -7815,7 +7995,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>123</v>
       </c>
@@ -7886,7 +8066,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -7957,7 +8137,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -8028,7 +8208,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="94" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -8099,7 +8279,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -8170,7 +8350,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -8241,7 +8421,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -8324,7 +8504,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -8407,7 +8587,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -8490,7 +8670,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -8573,7 +8753,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -8656,7 +8836,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -8739,7 +8919,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -8822,7 +9002,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -8905,7 +9085,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -8964,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -9023,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -9082,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -9141,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -9200,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -9259,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -9318,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -9377,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -9436,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -9495,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -9542,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -9589,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -9636,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -9683,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -9730,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -9777,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -9824,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -9871,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -9918,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -9965,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -10045,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -10125,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -10205,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -10285,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -10365,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -10445,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -10525,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -10605,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -10685,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -10765,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -10845,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -10925,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -11005,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11085,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -11156,7 +11336,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="140" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -11227,7 +11407,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -11280,7 +11460,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="142" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -11339,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -11398,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -11457,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -11516,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -11575,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -11634,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -11693,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -11752,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11814,7 +11994,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="151" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -11876,7 +12056,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="152" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -11938,7 +12118,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="153" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -12000,7 +12180,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="154" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -12062,7 +12242,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="155" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -12124,7 +12304,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="156" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>149</v>
       </c>
@@ -12186,7 +12366,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="157" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -12248,7 +12428,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="158" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -12331,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -12414,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -12497,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -12580,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -12663,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>159</v>
       </c>
@@ -12746,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -12829,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>159</v>
       </c>
@@ -12912,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -13001,20 +13181,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B1" t="s">
@@ -13023,114 +13204,6250 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>177</v>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="74.875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="14" max="14" width="24.625" customWidth="1"/>
+    <col min="15" max="15" width="21.25" customWidth="1"/>
+    <col min="16" max="16" width="30.375" customWidth="1"/>
+    <col min="17" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="18" width="24.375" customWidth="1"/>
+    <col min="19" max="19" width="27.75" customWidth="1"/>
+    <col min="21" max="21" width="13.5" customWidth="1"/>
+    <col min="22" max="22" width="20.75" customWidth="1"/>
+    <col min="23" max="23" width="24.125" customWidth="1"/>
+    <col min="24" max="24" width="20.75" customWidth="1"/>
+    <col min="25" max="25" width="23.375" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="27" max="27" width="20.875" customWidth="1"/>
+    <col min="28" max="28" width="24.75" customWidth="1"/>
+    <col min="29" max="29" width="19.625" customWidth="1"/>
+    <col min="30" max="30" width="28.75" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
+    <col min="32" max="32" width="20.875" customWidth="1"/>
+    <col min="33" max="33" width="24.75" customWidth="1"/>
+    <col min="34" max="34" width="19.625" customWidth="1"/>
+    <col min="35" max="35" width="28.75" customWidth="1"/>
+    <col min="38" max="38" width="11.875" customWidth="1"/>
+    <col min="39" max="39" width="16.125" customWidth="1"/>
+    <col min="40" max="40" width="20.375" customWidth="1"/>
+    <col min="41" max="41" width="24.125" customWidth="1"/>
+    <col min="42" max="42" width="20.75" customWidth="1"/>
+    <col min="43" max="43" width="29.875" customWidth="1"/>
+    <col min="44" max="44" width="13.25" customWidth="1"/>
+    <col min="45" max="45" width="22.375" customWidth="1"/>
+    <col min="46" max="46" width="16.125" customWidth="1"/>
+    <col min="47" max="47" width="22.875" customWidth="1"/>
+    <col min="48" max="48" width="28.5" customWidth="1"/>
+    <col min="49" max="49" width="20.375" customWidth="1"/>
+    <col min="50" max="50" width="29.875" customWidth="1"/>
+    <col min="51" max="51" width="12.125" customWidth="1"/>
+    <col min="52" max="52" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>122</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2">
+        <v>125</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1.5</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>175</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>177</v>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>131</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" s="11">
+        <v>30</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>129</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN5">
+        <v>20</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU5">
+        <v>110</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN6">
+        <v>110</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU6">
+        <v>20</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN7">
+        <v>500</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN8">
+        <v>2000</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>272</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9">
+        <v>2000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>75</v>
+      </c>
+      <c r="S9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>175</v>
+      </c>
+      <c r="W9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9">
+        <v>2000</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>273</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>175</v>
+      </c>
+      <c r="W10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="12">
+        <v>500</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>75</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>150</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>500</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="12"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12">
+        <v>2000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>75</v>
+      </c>
+      <c r="S12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>150</v>
+      </c>
+      <c r="W12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12">
+        <v>20000</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN13">
+        <v>60</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU13">
+        <v>10</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN14">
+        <v>80</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU14">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>76</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN15">
+        <v>60</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15">
+        <v>10</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>75</v>
+      </c>
+      <c r="S16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>150</v>
+      </c>
+      <c r="W16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16">
+        <v>200</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA16">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>150</v>
+      </c>
+      <c r="W17" t="s">
+        <v>62</v>
+      </c>
+      <c r="X17">
+        <v>200</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA17">
+        <v>100</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18">
+        <v>150</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>150</v>
+      </c>
+      <c r="W18" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18">
+        <v>200</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA18">
+        <v>150</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>138</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19">
+        <v>150</v>
+      </c>
+      <c r="N19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>150</v>
+      </c>
+      <c r="W19" t="s">
+        <v>62</v>
+      </c>
+      <c r="X19">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA19">
+        <v>150</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <v>66</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20">
+        <v>150</v>
+      </c>
+      <c r="N20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>75</v>
+      </c>
+      <c r="S20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>150</v>
+      </c>
+      <c r="W20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X20">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA20">
+        <v>150</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>75</v>
+      </c>
+      <c r="S21" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>75</v>
+      </c>
+      <c r="S22" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23">
+        <v>94</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN24">
+        <v>10</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU24">
+        <v>50</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN25">
+        <v>10</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU25">
+        <v>50</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>75</v>
+      </c>
+      <c r="S27" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>75</v>
+      </c>
+      <c r="W27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>47</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>75</v>
+      </c>
+      <c r="S28" t="s">
+        <v>62</v>
+      </c>
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>150</v>
+      </c>
+      <c r="W28" t="s">
+        <v>62</v>
+      </c>
+      <c r="X28">
+        <v>200</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29">
+        <v>52</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="10">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>75</v>
+      </c>
+      <c r="S29" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>150</v>
+      </c>
+      <c r="W29" t="s">
+        <v>62</v>
+      </c>
+      <c r="X29">
+        <v>200</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN30">
+        <v>600</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU30">
+        <v>1000</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31">
+        <v>120</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN31">
+        <v>1500</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32">
+        <v>317</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>75</v>
+      </c>
+      <c r="S32" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA32">
+        <v>10</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ32">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33">
+        <v>320</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>75</v>
+      </c>
+      <c r="S33" t="s">
+        <v>62</v>
+      </c>
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>75</v>
+      </c>
+      <c r="W33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA33">
+        <v>10</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ33">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN34">
+        <v>0.4</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>0.5</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU34">
+        <v>10</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ34">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN35">
+        <v>0.4</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>0.5</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU35">
+        <v>10</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ35">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN36">
+        <v>10</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN37">
+        <v>20</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU37">
+        <v>60</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN38">
+        <v>40</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU38">
+        <v>60</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN39">
+        <v>40</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU39">
+        <v>75</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN40">
+        <v>40</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU40">
+        <v>75</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41">
+        <v>76</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN41">
+        <v>40</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU41">
+        <v>150</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42">
+        <v>36</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN42">
+        <v>40</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU42">
+        <v>75</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>161</v>
+      </c>
+      <c r="M43">
+        <v>300</v>
+      </c>
+      <c r="N43" t="s">
+        <v>72</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>75</v>
+      </c>
+      <c r="S43" t="s">
+        <v>62</v>
+      </c>
+      <c r="T43" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>150</v>
+      </c>
+      <c r="W43" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA43">
+        <v>500</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>161</v>
+      </c>
+      <c r="M44">
+        <v>400</v>
+      </c>
+      <c r="N44" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>75</v>
+      </c>
+      <c r="S44" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>150</v>
+      </c>
+      <c r="W44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA44">
+        <v>500</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45">
+        <v>110</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>161</v>
+      </c>
+      <c r="M45">
+        <v>300</v>
+      </c>
+      <c r="N45" t="s">
+        <v>72</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>75</v>
+      </c>
+      <c r="S45" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>150</v>
+      </c>
+      <c r="W45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA45">
+        <v>400</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="4" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="s">
+        <v>139</v>
+      </c>
+      <c r="D135">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>16</v>
+      </c>
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>16</v>
+      </c>
+      <c r="B147" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>16</v>
+      </c>
+      <c r="B148" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" t="s">
+        <v>57</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" t="s">
+        <v>57</v>
+      </c>
+      <c r="D150">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>16</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" t="s">
+        <v>57</v>
+      </c>
+      <c r="D152">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>16</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>16</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>16</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" t="s">
+        <v>57</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>162</v>
+      </c>
+      <c r="D165">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -5,17 +5,20 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DA7F4AB3-3F60-4139-A2ED-B2C7AF11DA1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2C051F9-10CB-4C67-A376-D9B8C8B14451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="2" r:id="rId1"/>
     <sheet name="Arms" sheetId="3" r:id="rId2"/>
     <sheet name="Dropout" sheetId="4" r:id="rId3"/>
+    <sheet name="Neoadjuvant" sheetId="5" r:id="rId4"/>
+    <sheet name="Concomitant" sheetId="6" r:id="rId5"/>
+    <sheet name="Concomitant Tem" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="633" uniqueCount="165">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="677" uniqueCount="164">
   <si>
     <t>Phase</t>
   </si>
@@ -36,9 +39,6 @@
   </si>
   <si>
     <t>Randomized</t>
-  </si>
-  <si>
-    <t>Neo</t>
   </si>
   <si>
     <t>Neo Drug</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -701,8 +701,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,8 +915,14 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <start/>
       <end/>
@@ -1053,6 +1068,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1098,7 +1148,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1123,7 +1173,6 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1132,6 +1181,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1177,7 +1233,180 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <start/>
+        <end/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start/>
+        <end/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <start/>
+        <end/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1201,9 +1430,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1255,28 +1481,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AZ45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:AZ45" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
-  <tableColumns count="52">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AN45" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:AN45" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+  <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
     <tableColumn id="3" xr3:uid="{812D4910-70D1-4BB6-9392-9EE81E6B607E}" name="Enrollment"/>
     <tableColumn id="4" xr3:uid="{63022E9F-2D81-498D-8C05-BF852023D8B8}" name="Radiation"/>
     <tableColumn id="5" xr3:uid="{869510A2-1CE0-437C-9ED4-65B04D4A1360}" name="Randomized"/>
-    <tableColumn id="6" xr3:uid="{F4E40E0F-4CAE-4FC5-9996-A7ACCBC67A18}" name="Neo"/>
-    <tableColumn id="7" xr3:uid="{5D968C00-3E31-42C2-878F-22C046888F88}" name="Neo Drug"/>
-    <tableColumn id="8" xr3:uid="{CFE9351B-80D2-4076-A876-FCCF85F79865}" name="Neo Drug Dosage" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{12798B60-8D09-4526-A16E-38207AE0B281}" name="Neo Drug Dosage Unit"/>
     <tableColumn id="10" xr3:uid="{03B678CC-1932-4A2C-AAB0-73B5893DD292}" name="Surgery"/>
     <tableColumn id="11" xr3:uid="{FA550D66-7A8A-4FDA-A4AD-2318054511FD}" name="Concomitant"/>
-    <tableColumn id="12" xr3:uid="{7A09DCC4-7932-4B91-8F33-A94219FA4CE7}" name="Concomitant Drug"/>
-    <tableColumn id="13" xr3:uid="{2822EEAD-F303-4226-95BE-8490C4DA6DD0}" name="Concomitant Drug Dosage"/>
-    <tableColumn id="14" xr3:uid="{B4B26398-FA7B-4A39-A1E3-599ED6249D88}" name="Concomitant Drug Dose Unit"/>
-    <tableColumn id="15" xr3:uid="{8A1BD74E-7882-46CC-809B-030854F19129}" name="IV for Concomitant Drug"/>
-    <tableColumn id="16" xr3:uid="{AD92BCF9-0105-4CB1-AAF4-D87AE2562153}" name="Duration of IV for Concomitant Drug"/>
-    <tableColumn id="17" xr3:uid="{A13BDC6B-7929-4EFF-99E6-B5CDC14674E4}" name="Concomitant Temodal2"/>
-    <tableColumn id="18" xr3:uid="{2CA1B52A-7453-4DE2-87E5-F74E8B2266EA}" name=" Concomitant Temodal Dose"/>
-    <tableColumn id="19" xr3:uid="{AB7C6A56-EE94-459D-A8F6-3381425E8DB5}" name="Concomitant Temodal Dose Unit"/>
     <tableColumn id="20" xr3:uid="{74EFA571-B2A7-46A2-9E15-B8698BFB18EB}" name="Adjuvant"/>
     <tableColumn id="21" xr3:uid="{B9C7D220-7D77-4400-A952-69BE0E445DC4}" name="Adjuvant TEM"/>
     <tableColumn id="22" xr3:uid="{88D80F7A-FE33-45B3-8544-A8AEF1CE419D}" name="Adjuvant TEM 1 Dosage"/>
@@ -1316,13 +1530,57 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5575AAA7-D95E-4197-9C82-F09ADC5AE257}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5575AAA7-D95E-4197-9C82-F09ADC5AE257}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:D166" xr:uid="{9117CEBF-E6D3-44F7-9FE3-CA1EB339F466}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{74BA0FDB-5710-4882-8060-FAB71C74C8A1}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{D83BF8D5-0470-4910-910C-F5171F043851}" name="Arm"/>
     <tableColumn id="3" xr3:uid="{D119BC61-4524-4402-82D9-225E15CA1BC2}" name="Reason"/>
     <tableColumn id="4" xr3:uid="{211BE37C-9E73-4258-9F0B-526A06D666FD}" name="Dropouts"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B3D4233-F20E-48BF-9756-1CD7CC13A260}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E2" xr:uid="{C91D0DA2-D727-4E0F-8EC4-17B25C4E8387}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E4577221-1973-4BCF-BAF7-1AB70117714D}" name="NCT"/>
+    <tableColumn id="2" xr3:uid="{EA872DFA-99BE-4320-90D2-4CF33088C1B5}" name="Arm"/>
+    <tableColumn id="3" xr3:uid="{30298370-E7DF-4944-A120-B51B0265395A}" name="Neo Drug" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7E187766-C32E-4BD3-80B1-4B9D8AA592BE}" name="Neo Drug Dosage" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{54CEE142-B286-436E-BD32-02E0329ABA44}" name="Neo Drug Dosage Unit" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB44517B-C1A6-46E9-9D24-24F7E214F6B7}" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G17" xr:uid="{B1746B79-9F7F-404B-A6E8-83AEB985AB71}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EE6D7B2A-E249-435B-A896-05A7E74A801F}" name="NCT"/>
+    <tableColumn id="2" xr3:uid="{33133F58-E59C-4614-B997-0D39B0825394}" name="Arm"/>
+    <tableColumn id="3" xr3:uid="{7A75E966-0EE7-4934-8C08-DD8D1B8FC3D0}" name="Concomitant Drug"/>
+    <tableColumn id="4" xr3:uid="{29D3BA2D-ECA1-411C-9FAB-506176946F14}" name="Concomitant Drug Dosage"/>
+    <tableColumn id="5" xr3:uid="{547B916E-17C5-472A-B931-EB2B05BFC122}" name="Concomitant Drug Dose Unit"/>
+    <tableColumn id="6" xr3:uid="{0AB7F4F3-F5CA-4423-8697-3F58ECFD8E44}" name="IV for Concomitant Drug"/>
+    <tableColumn id="7" xr3:uid="{EC6E218E-7300-4409-BE49-E5E55D3CA1DF}" name="Duration of IV for Concomitant Drug"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15337EB3-855F-4F50-B6E4-CECAA2CCDEF0}" name="Table6" displayName="Table6" ref="A1:E23" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+  <autoFilter ref="A1:E23" xr:uid="{DB024295-AB18-4A25-866D-45881406AE0C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D7325FB9-74D1-4609-855A-27A9CEC4B977}" name="NCT"/>
+    <tableColumn id="2" xr3:uid="{3AA50FB9-AF97-4D8E-AFAD-91A283E85E09}" name="Arm"/>
+    <tableColumn id="8" xr3:uid="{6B1AB051-9ADA-4837-B83C-3BBE77374A7F}" name="Concomitant Temodal2"/>
+    <tableColumn id="9" xr3:uid="{040C3D14-7B51-4BD2-9FC2-57576E29B0E1}" name=" Concomitant Temodal Dose"/>
+    <tableColumn id="10" xr3:uid="{A846770A-258A-4275-886F-418344B55086}" name="Concomitant Temodal Dose Unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1639,10 +1897,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" t="s">
-        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1660,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1671,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1682,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1693,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1704,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1715,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1726,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1737,7 +1995,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1748,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1759,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1770,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1781,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1792,7 +2050,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1803,7 +2061,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1814,7 +2072,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1825,7 +2083,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1841,69 +2099,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AZ45"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.875" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="13" max="13" width="22.625" customWidth="1"/>
-    <col min="14" max="14" width="24.625" customWidth="1"/>
-    <col min="15" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="30.375" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="18" width="24.375" customWidth="1"/>
-    <col min="19" max="19" width="27.75" customWidth="1"/>
-    <col min="21" max="21" width="13.5" customWidth="1"/>
-    <col min="22" max="22" width="20.75" customWidth="1"/>
-    <col min="23" max="23" width="24.125" customWidth="1"/>
-    <col min="24" max="24" width="20.75" customWidth="1"/>
-    <col min="25" max="25" width="23.375" customWidth="1"/>
-    <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="27" max="27" width="20.875" customWidth="1"/>
-    <col min="28" max="28" width="24.75" customWidth="1"/>
-    <col min="29" max="29" width="19.625" customWidth="1"/>
-    <col min="30" max="30" width="28.75" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="32" max="32" width="20.875" customWidth="1"/>
-    <col min="33" max="33" width="24.75" customWidth="1"/>
-    <col min="34" max="34" width="19.625" customWidth="1"/>
-    <col min="35" max="35" width="28.75" customWidth="1"/>
-    <col min="38" max="38" width="11.875" customWidth="1"/>
-    <col min="39" max="39" width="16.125" customWidth="1"/>
-    <col min="40" max="40" width="20.375" customWidth="1"/>
-    <col min="41" max="41" width="24.125" customWidth="1"/>
-    <col min="42" max="42" width="20.75" customWidth="1"/>
-    <col min="43" max="43" width="29.875" customWidth="1"/>
-    <col min="44" max="44" width="13.25" customWidth="1"/>
-    <col min="45" max="45" width="22.375" customWidth="1"/>
-    <col min="46" max="46" width="16.125" customWidth="1"/>
-    <col min="47" max="47" width="22.875" customWidth="1"/>
-    <col min="48" max="48" width="28.5" customWidth="1"/>
-    <col min="49" max="49" width="20.375" customWidth="1"/>
-    <col min="50" max="50" width="29.875" customWidth="1"/>
-    <col min="51" max="51" width="12.125" customWidth="1"/>
-    <col min="52" max="52" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="75.75" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
+    <col min="14" max="14" width="23.375" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="20.875" customWidth="1"/>
+    <col min="17" max="17" width="24.75" customWidth="1"/>
+    <col min="18" max="18" width="19.625" customWidth="1"/>
+    <col min="19" max="19" width="28.75" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="24.75" customWidth="1"/>
+    <col min="23" max="23" width="19.625" customWidth="1"/>
+    <col min="24" max="24" width="28.75" customWidth="1"/>
+    <col min="27" max="27" width="11.875" customWidth="1"/>
+    <col min="28" max="28" width="16.125" customWidth="1"/>
+    <col min="29" max="29" width="20.375" customWidth="1"/>
+    <col min="30" max="30" width="24.125" customWidth="1"/>
+    <col min="31" max="31" width="20.75" customWidth="1"/>
+    <col min="32" max="32" width="29.875" customWidth="1"/>
+    <col min="33" max="33" width="13.25" customWidth="1"/>
+    <col min="34" max="34" width="22.375" customWidth="1"/>
+    <col min="35" max="35" width="16.125" customWidth="1"/>
+    <col min="36" max="36" width="22.875" customWidth="1"/>
+    <col min="37" max="37" width="28.5" customWidth="1"/>
+    <col min="38" max="38" width="20.375" customWidth="1"/>
+    <col min="39" max="39" width="29.875" customWidth="1"/>
+    <col min="40" max="40" width="12.125" customWidth="1"/>
+    <col min="41" max="41" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1912,153 +2164,117 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>8</v>
+      <c r="H1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>122</v>
@@ -2073,93 +2289,66 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
         <v>53</v>
       </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2">
-        <v>10</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="T2">
+        <v>125</v>
+      </c>
+      <c r="U2" t="s">
         <v>55</v>
       </c>
-      <c r="AF2">
-        <v>125</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI2">
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>1.5</v>
       </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2">
         <v>16.64</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -2174,60 +2363,42 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>75</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>175</v>
       </c>
-      <c r="W3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>131</v>
@@ -2241,85 +2412,69 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12" t="s">
+      <c r="G4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AN4" s="12">
-        <v>30</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="12">
+      <c r="AD4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>129</v>
@@ -2333,64 +2488,58 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="12" t="s">
+      <c r="G5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="AD5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI5">
+        <v>110</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
       <c r="AN5">
-        <v>20</v>
-      </c>
-      <c r="AO5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU5">
-        <v>110</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>65</v>
@@ -2404,64 +2553,58 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>70</v>
+      <c r="G6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB6">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI6">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>110</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU6">
-        <v>20</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>41</v>
@@ -2469,61 +2612,55 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="b">
+      <c r="E7" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>75</v>
+      <c r="G7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB7">
+        <v>500</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>500</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AY7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
         <v>6.54</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -2531,61 +2668,55 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="13" t="b">
+      <c r="E8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>75</v>
+      <c r="G8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8">
+        <v>2000</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>2000</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8">
         <v>9.91</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>272</v>
@@ -2600,93 +2731,57 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>175</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9">
         <v>2000</v>
       </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
+      <c r="P9" t="s">
+        <v>65</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" t="b">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>175</v>
-      </c>
-      <c r="W9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9">
-        <v>2000</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AJ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9">
         <v>26.3</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>273</v>
@@ -2701,63 +2796,42 @@
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>175</v>
       </c>
-      <c r="W10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>26.3</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>46</v>
@@ -2765,115 +2839,81 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="13" t="b">
+      <c r="E11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="G11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>150</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="12">
         <v>500</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13">
-        <v>75</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="U11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="V11" s="13">
-        <v>150</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>500</v>
-      </c>
-      <c r="AB11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="13"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="P11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="12"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>48</v>
@@ -2881,97 +2921,64 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="13" t="b">
+      <c r="E12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="O12">
+        <v>20000</v>
+      </c>
+      <c r="P12" t="s">
+        <v>65</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12" t="b">
-        <v>1</v>
-      </c>
-      <c r="U12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>150</v>
-      </c>
-      <c r="W12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA12">
-        <v>20000</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD12">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12">
         <v>19.7</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2991,58 +2998,52 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="b">
-        <v>0</v>
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB13">
+        <v>60</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13">
+        <v>10</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>53</v>
       </c>
       <c r="AK13" t="b">
         <v>1</v>
       </c>
-      <c r="AM13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN13">
-        <v>60</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU13">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX13">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3062,58 +3063,52 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="b">
-        <v>0</v>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB14">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14">
+        <v>10</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>53</v>
       </c>
       <c r="AK14" t="b">
         <v>1</v>
       </c>
-      <c r="AM14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN14">
-        <v>80</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU14">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>76</v>
@@ -3133,58 +3128,52 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="b">
-        <v>0</v>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB15">
+        <v>60</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI15">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>53</v>
       </c>
       <c r="AK15" t="b">
         <v>1</v>
       </c>
-      <c r="AM15" t="s">
-        <v>87</v>
+      <c r="AM15" t="b">
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>60</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU15">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ15">
         <v>10.8</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3199,87 +3188,57 @@
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16">
         <v>100</v>
       </c>
-      <c r="N16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
+      <c r="P16" t="s">
+        <v>65</v>
       </c>
       <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>75</v>
-      </c>
-      <c r="S16" t="s">
-        <v>56</v>
-      </c>
-      <c r="T16" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" t="b">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>150</v>
-      </c>
-      <c r="W16" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16">
-        <v>200</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA16">
-        <v>100</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3294,87 +3253,57 @@
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
+      <c r="P17" t="s">
+        <v>65</v>
       </c>
       <c r="Q17" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s">
-        <v>56</v>
-      </c>
-      <c r="T17" t="b">
-        <v>1</v>
-      </c>
-      <c r="U17" t="b">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>150</v>
-      </c>
-      <c r="W17" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17">
-        <v>200</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA17">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -3389,87 +3318,57 @@
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>150</v>
       </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
       <c r="N18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" t="b">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="O18">
+        <v>150</v>
+      </c>
+      <c r="P18" t="s">
+        <v>65</v>
       </c>
       <c r="Q18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s">
-        <v>56</v>
-      </c>
-      <c r="T18" t="b">
-        <v>1</v>
-      </c>
-      <c r="U18" t="b">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>150</v>
-      </c>
-      <c r="W18" t="s">
-        <v>56</v>
-      </c>
-      <c r="X18">
-        <v>200</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA18">
-        <v>150</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>138</v>
@@ -3484,90 +3383,60 @@
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>150</v>
       </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
       <c r="N19" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" t="b">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="O19">
+        <v>150</v>
+      </c>
+      <c r="P19" t="s">
+        <v>65</v>
       </c>
       <c r="Q19" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s">
-        <v>56</v>
-      </c>
-      <c r="T19" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" t="b">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>150</v>
-      </c>
-      <c r="W19" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19">
-        <v>200</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA19">
-        <v>150</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19">
         <v>15.6</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>66</v>
@@ -3582,90 +3451,60 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>150</v>
       </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
       <c r="N20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" t="b">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="O20">
+        <v>150</v>
+      </c>
+      <c r="P20" t="s">
+        <v>65</v>
       </c>
       <c r="Q20" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>75</v>
-      </c>
-      <c r="S20" t="s">
-        <v>56</v>
-      </c>
-      <c r="T20" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>150</v>
-      </c>
-      <c r="W20" t="s">
-        <v>56</v>
-      </c>
-      <c r="X20">
-        <v>200</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA20">
-        <v>150</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20">
         <v>19.3</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -3680,66 +3519,33 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0.5</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>75</v>
-      </c>
-      <c r="S21" t="s">
-        <v>56</v>
-      </c>
-      <c r="T21" t="b">
-        <v>1</v>
-      </c>
-      <c r="U21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -3754,66 +3560,33 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>75</v>
-      </c>
-      <c r="S22" t="s">
-        <v>56</v>
-      </c>
-      <c r="T22" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>94</v>
@@ -3828,69 +3601,36 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>106</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>0.5</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>75</v>
-      </c>
-      <c r="S23" t="s">
-        <v>56</v>
-      </c>
-      <c r="T23" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23">
         <v>15.6</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -3910,61 +3650,55 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="b">
-        <v>0</v>
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB24">
+        <v>10</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI24">
+        <v>50</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>55</v>
       </c>
       <c r="AK24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>10</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ24">
-        <v>1</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU24">
-        <v>50</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ24">
         <v>12.6</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -3984,61 +3718,55 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="b">
-        <v>0</v>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB25">
+        <v>10</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI25">
+        <v>50</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>55</v>
       </c>
       <c r="AK25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>10</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU25">
-        <v>50</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26">
         <v>42</v>
@@ -4053,60 +3781,33 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>115</v>
-      </c>
-      <c r="M26">
-        <v>50</v>
-      </c>
-      <c r="N26" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>21</v>
@@ -4121,60 +3822,39 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>75</v>
       </c>
-      <c r="S27" t="s">
-        <v>56</v>
-      </c>
-      <c r="T27" t="b">
-        <v>1</v>
-      </c>
-      <c r="U27" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>75</v>
-      </c>
-      <c r="W27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>47</v>
@@ -4186,69 +3866,51 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>75</v>
-      </c>
-      <c r="S28" t="s">
-        <v>56</v>
-      </c>
-      <c r="T28" t="b">
-        <v>1</v>
-      </c>
-      <c r="U28" t="b">
-        <v>1</v>
-      </c>
-      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="J28">
         <v>150</v>
       </c>
-      <c r="W28" t="s">
-        <v>56</v>
-      </c>
-      <c r="X28">
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28">
         <v>200</v>
       </c>
-      <c r="Y28" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28">
         <v>13.17</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <v>52</v>
@@ -4262,67 +3924,49 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="10">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>75</v>
-      </c>
-      <c r="S29" t="s">
-        <v>56</v>
-      </c>
-      <c r="T29" t="b">
-        <v>1</v>
-      </c>
-      <c r="U29" t="b">
-        <v>1</v>
-      </c>
-      <c r="V29">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
         <v>150</v>
       </c>
-      <c r="W29" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29">
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29">
         <v>200</v>
       </c>
-      <c r="Y29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29">
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30">
         <v>120</v>
@@ -4342,55 +3986,49 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="b">
-        <v>0</v>
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB30">
+        <v>600</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI30">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>65</v>
       </c>
       <c r="AK30" t="b">
         <v>0</v>
       </c>
-      <c r="AM30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN30">
-        <v>600</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU30">
-        <v>1000</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AM30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31">
         <v>120</v>
@@ -4410,43 +4048,37 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN31">
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB31">
         <v>1500</v>
       </c>
-      <c r="AO31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AC31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32">
         <v>317</v>
@@ -4454,82 +4086,64 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="12" t="b">
+      <c r="E32" s="11" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
+        <v>53</v>
       </c>
       <c r="Q32" t="b">
         <v>1</v>
       </c>
       <c r="R32">
-        <v>75</v>
-      </c>
-      <c r="S32" t="s">
-        <v>56</v>
-      </c>
-      <c r="T32" t="b">
-        <v>1</v>
-      </c>
-      <c r="U32" t="b">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA32">
-        <v>10</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AJ32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33">
         <v>320</v>
@@ -4537,82 +4151,64 @@
       <c r="D33" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="12" t="b">
+      <c r="E33" s="11" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33" t="s">
+        <v>53</v>
       </c>
       <c r="Q33" t="b">
         <v>1</v>
       </c>
       <c r="R33">
-        <v>75</v>
-      </c>
-      <c r="S33" t="s">
-        <v>56</v>
-      </c>
-      <c r="T33" t="b">
-        <v>1</v>
-      </c>
-      <c r="U33" t="b">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>75</v>
-      </c>
-      <c r="W33" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA33">
-        <v>10</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AJ33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33">
         <v>15.7</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34">
         <v>29</v>
@@ -4629,73 +4225,64 @@
       <c r="G34" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB34">
+        <v>0.4</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>0.5</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI34">
+        <v>10</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>53</v>
       </c>
       <c r="AK34" t="b">
         <v>1</v>
       </c>
-      <c r="AM34" t="s">
-        <v>139</v>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="b">
+        <v>1</v>
       </c>
       <c r="AN34">
-        <v>0.4</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS34">
-        <v>0.5</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU34">
-        <v>10</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ34">
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35">
         <v>30</v>
@@ -4712,73 +4299,64 @@
       <c r="G35" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB35">
+        <v>0.4</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>0.5</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI35">
+        <v>10</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>53</v>
       </c>
       <c r="AK35" t="b">
         <v>1</v>
       </c>
-      <c r="AM35" t="s">
-        <v>139</v>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="b">
+        <v>1</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS35">
-        <v>0.5</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU35">
-        <v>10</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX35">
-        <v>1</v>
-      </c>
-      <c r="AY35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ35">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36">
         <v>31</v>
@@ -4795,55 +4373,46 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM36" t="s">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB36">
+        <v>10</v>
+      </c>
+      <c r="AC36" t="s">
         <v>53</v>
       </c>
+      <c r="AD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
       <c r="AN36">
-        <v>10</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ36">
-        <v>1</v>
-      </c>
-      <c r="AY36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ36">
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4860,61 +4429,52 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB37">
+        <v>20</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI37">
+        <v>60</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>65</v>
       </c>
       <c r="AK37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN37">
-        <v>20</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU37">
-        <v>60</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4931,61 +4491,52 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB38">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI38">
+        <v>60</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>65</v>
       </c>
       <c r="AK38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN38">
-        <v>40</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU38">
-        <v>60</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -5002,61 +4553,52 @@
       <c r="G39" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB39">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI39">
+        <v>75</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>65</v>
       </c>
       <c r="AK39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN39">
-        <v>40</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU39">
-        <v>75</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40">
         <v>75</v>
@@ -5073,64 +4615,55 @@
       <c r="G40" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB40">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI40">
+        <v>75</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>65</v>
       </c>
       <c r="AK40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="AM40" t="b">
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>40</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU40">
-        <v>75</v>
-      </c>
-      <c r="AV40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ40">
         <v>10.3</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41">
         <v>76</v>
@@ -5147,64 +4680,55 @@
       <c r="G41" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB41">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI41">
+        <v>150</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>65</v>
       </c>
       <c r="AK41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>0</v>
       </c>
       <c r="AN41">
-        <v>40</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU41">
-        <v>150</v>
-      </c>
-      <c r="AV41" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
         <v>10.7</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42">
         <v>36</v>
@@ -5221,64 +4745,55 @@
       <c r="G42" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB42">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI42">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>65</v>
       </c>
       <c r="AK42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="AM42" t="b">
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>40</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU42">
-        <v>75</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
         <v>4.7</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43">
         <v>12</v>
@@ -5293,81 +4808,51 @@
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>155</v>
-      </c>
-      <c r="M43">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>150</v>
+      </c>
+      <c r="K43" t="s">
+        <v>55</v>
       </c>
       <c r="N43" t="s">
-        <v>66</v>
-      </c>
-      <c r="O43" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="O43">
+        <v>500</v>
+      </c>
+      <c r="P43" t="s">
+        <v>65</v>
       </c>
       <c r="Q43" t="b">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>75</v>
-      </c>
-      <c r="S43" t="s">
-        <v>56</v>
-      </c>
-      <c r="T43" t="b">
-        <v>1</v>
-      </c>
-      <c r="U43" t="b">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>150</v>
-      </c>
-      <c r="W43" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA43">
-        <v>500</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5382,81 +4867,51 @@
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>155</v>
-      </c>
-      <c r="M44">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>150</v>
+      </c>
+      <c r="K44" t="s">
+        <v>55</v>
       </c>
       <c r="N44" t="s">
-        <v>66</v>
-      </c>
-      <c r="O44" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="O44">
+        <v>500</v>
+      </c>
+      <c r="P44" t="s">
+        <v>65</v>
       </c>
       <c r="Q44" t="b">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <v>75</v>
-      </c>
-      <c r="S44" t="s">
-        <v>56</v>
-      </c>
-      <c r="T44" t="b">
-        <v>1</v>
-      </c>
-      <c r="U44" t="b">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>150</v>
-      </c>
-      <c r="W44" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA44">
-        <v>500</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>110</v>
@@ -5471,72 +4926,42 @@
         <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>155</v>
-      </c>
-      <c r="M45">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>150</v>
+      </c>
+      <c r="K45" t="s">
+        <v>55</v>
       </c>
       <c r="N45" t="s">
-        <v>66</v>
-      </c>
-      <c r="O45" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="O45">
+        <v>400</v>
+      </c>
+      <c r="P45" t="s">
+        <v>65</v>
       </c>
       <c r="Q45" t="b">
-        <v>1</v>
-      </c>
-      <c r="R45">
-        <v>75</v>
-      </c>
-      <c r="S45" t="s">
-        <v>56</v>
-      </c>
-      <c r="T45" t="b">
-        <v>1</v>
-      </c>
-      <c r="U45" t="b">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>150</v>
-      </c>
-      <c r="W45" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA45">
-        <v>400</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="b">
+        <v>0</v>
+      </c>
+      <c r="X45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5552,8 +4977,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5565,16 +4990,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5582,10 +5007,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -5596,10 +5021,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -5610,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -5624,10 +5049,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5638,10 +5063,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>102</v>
@@ -5652,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5666,10 +5091,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5680,10 +5105,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -5694,10 +5119,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -5708,10 +5133,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5722,10 +5147,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5736,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>51</v>
@@ -5750,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5764,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5778,12 +5203,12 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="12">
+        <v>61</v>
+      </c>
+      <c r="D16" s="11">
         <v>41</v>
       </c>
     </row>
@@ -5792,10 +5217,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5806,10 +5231,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>85</v>
@@ -5820,10 +5245,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -5834,10 +5259,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -5848,10 +5273,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>46</v>
@@ -5862,10 +5287,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -5876,10 +5301,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>73</v>
@@ -5890,10 +5315,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -5904,10 +5329,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -5918,10 +5343,10 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>28</v>
@@ -5932,12 +5357,12 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="14">
+        <v>66</v>
+      </c>
+      <c r="D27" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5946,12 +5371,12 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="14">
+        <v>59</v>
+      </c>
+      <c r="D28" s="13">
         <v>33</v>
       </c>
     </row>
@@ -5960,12 +5385,12 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="14">
+        <v>57</v>
+      </c>
+      <c r="D29" s="13">
         <v>3</v>
       </c>
     </row>
@@ -5974,12 +5399,12 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="14">
+        <v>67</v>
+      </c>
+      <c r="D30" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5988,12 +5413,12 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="14">
+        <v>61</v>
+      </c>
+      <c r="D31" s="13">
         <v>41</v>
       </c>
     </row>
@@ -6002,12 +5427,12 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="14">
+        <v>61</v>
+      </c>
+      <c r="D32" s="13">
         <v>40</v>
       </c>
     </row>
@@ -6016,12 +5441,12 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="14">
+        <v>61</v>
+      </c>
+      <c r="D33" s="13">
         <v>233</v>
       </c>
     </row>
@@ -6030,12 +5455,12 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>39</v>
       </c>
     </row>
@@ -6044,12 +5469,12 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="14">
+        <v>61</v>
+      </c>
+      <c r="D35" s="13">
         <v>237</v>
       </c>
     </row>
@@ -6058,12 +5483,12 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="14">
+        <v>78</v>
+      </c>
+      <c r="D36" s="13">
         <v>36</v>
       </c>
     </row>
@@ -6072,12 +5497,12 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="15">
+        <v>61</v>
+      </c>
+      <c r="D37" s="14">
         <v>46</v>
       </c>
     </row>
@@ -6086,12 +5511,12 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="14">
+        <v>61</v>
+      </c>
+      <c r="D38" s="13">
         <v>48</v>
       </c>
     </row>
@@ -6100,12 +5525,12 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="14">
+        <v>84</v>
+      </c>
+      <c r="D39" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +5539,12 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="14">
+        <v>87</v>
+      </c>
+      <c r="D40" s="13">
         <v>2</v>
       </c>
     </row>
@@ -6128,12 +5553,12 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="14">
+        <v>88</v>
+      </c>
+      <c r="D41" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6142,12 +5567,12 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="14">
+        <v>57</v>
+      </c>
+      <c r="D42" s="13">
         <v>2</v>
       </c>
     </row>
@@ -6156,12 +5581,12 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="14">
+        <v>59</v>
+      </c>
+      <c r="D43" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6170,12 +5595,12 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="14">
+        <v>89</v>
+      </c>
+      <c r="D44" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6184,12 +5609,12 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="14">
+        <v>90</v>
+      </c>
+      <c r="D45" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6198,12 +5623,12 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="14">
+        <v>91</v>
+      </c>
+      <c r="D46" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6212,12 +5637,12 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="14">
+        <v>61</v>
+      </c>
+      <c r="D47" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6226,12 +5651,12 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="14">
+        <v>84</v>
+      </c>
+      <c r="D48" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6240,12 +5665,12 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="14">
+        <v>87</v>
+      </c>
+      <c r="D49" s="13">
         <v>4</v>
       </c>
     </row>
@@ -6254,12 +5679,12 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="14">
+        <v>88</v>
+      </c>
+      <c r="D50" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6268,12 +5693,12 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="14">
+        <v>57</v>
+      </c>
+      <c r="D51" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6282,12 +5707,12 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="14">
+        <v>59</v>
+      </c>
+      <c r="D52" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6296,12 +5721,12 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="14">
+        <v>89</v>
+      </c>
+      <c r="D53" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6310,12 +5735,12 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="16">
+        <v>90</v>
+      </c>
+      <c r="D54" s="15">
         <v>0</v>
       </c>
     </row>
@@ -6324,12 +5749,12 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="12">
+        <v>91</v>
+      </c>
+      <c r="D55" s="11">
         <v>0</v>
       </c>
     </row>
@@ -6338,12 +5763,12 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="12">
+        <v>61</v>
+      </c>
+      <c r="D56" s="11">
         <v>0</v>
       </c>
     </row>
@@ -6352,12 +5777,12 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="12">
+        <v>84</v>
+      </c>
+      <c r="D57" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6366,12 +5791,12 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="12">
+        <v>87</v>
+      </c>
+      <c r="D58" s="11">
         <v>50</v>
       </c>
     </row>
@@ -6380,12 +5805,12 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="12">
+        <v>88</v>
+      </c>
+      <c r="D59" s="11">
         <v>12</v>
       </c>
     </row>
@@ -6394,12 +5819,12 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="12">
+        <v>57</v>
+      </c>
+      <c r="D60" s="11">
         <v>9</v>
       </c>
     </row>
@@ -6408,12 +5833,12 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="12">
+        <v>59</v>
+      </c>
+      <c r="D61" s="11">
         <v>0</v>
       </c>
     </row>
@@ -6422,12 +5847,12 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="12">
+        <v>89</v>
+      </c>
+      <c r="D62" s="11">
         <v>2</v>
       </c>
     </row>
@@ -6436,12 +5861,12 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="12">
+        <v>90</v>
+      </c>
+      <c r="D63" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6450,12 +5875,12 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="12">
+        <v>91</v>
+      </c>
+      <c r="D64" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6464,12 +5889,12 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="12">
+        <v>61</v>
+      </c>
+      <c r="D65" s="11">
         <v>0</v>
       </c>
     </row>
@@ -6478,10 +5903,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -6492,10 +5917,10 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6506,10 +5931,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6520,10 +5945,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -6534,10 +5959,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -6548,10 +5973,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71">
         <v>7</v>
@@ -6562,10 +5987,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -6576,10 +6001,10 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <v>133</v>
@@ -6590,10 +6015,10 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -6604,10 +6029,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75">
         <v>63</v>
@@ -6618,10 +6043,10 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -6632,10 +6057,10 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -6646,10 +6071,10 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78">
         <v>13</v>
@@ -6660,10 +6085,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D79">
         <v>9</v>
@@ -6674,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -6688,10 +6113,10 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D81">
         <v>81</v>
@@ -6702,10 +6127,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D82">
         <v>10</v>
@@ -6716,10 +6141,10 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <v>12</v>
@@ -6730,10 +6155,10 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -6744,10 +6169,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -6758,10 +6183,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D86">
         <v>39</v>
@@ -6772,10 +6197,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -6786,10 +6211,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D88">
         <v>18</v>
@@ -6800,10 +6225,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -6814,10 +6239,10 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" t="s">
         <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>119</v>
       </c>
       <c r="D90">
         <v>17</v>
@@ -6828,10 +6253,10 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D91">
         <v>7</v>
@@ -6842,10 +6267,10 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92">
         <v>6</v>
@@ -6856,10 +6281,10 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D93">
         <v>13</v>
@@ -6870,10 +6295,10 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -6884,10 +6309,10 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -6898,10 +6323,10 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -6912,10 +6337,10 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -6926,10 +6351,10 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98">
         <v>23</v>
@@ -6940,10 +6365,10 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -6954,10 +6379,10 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -6968,10 +6393,10 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -6982,10 +6407,10 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -6996,10 +6421,10 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -7010,10 +6435,10 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D104">
         <v>10</v>
@@ -7024,12 +6449,12 @@
         <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
-      </c>
-      <c r="D105" s="11">
+        <v>122</v>
+      </c>
+      <c r="D105" s="10">
         <v>25</v>
       </c>
     </row>
@@ -7038,10 +6463,10 @@
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D106">
         <v>18</v>
@@ -7052,10 +6477,10 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D107">
         <v>14</v>
@@ -7066,10 +6491,10 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -7080,12 +6505,12 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
-      </c>
-      <c r="D109" s="11">
+        <v>126</v>
+      </c>
+      <c r="D109" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7094,10 +6519,10 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -7108,10 +6533,10 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -7122,10 +6547,10 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -7136,10 +6561,10 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113">
         <v>44</v>
@@ -7150,10 +6575,10 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114">
         <v>7</v>
@@ -7164,10 +6589,10 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D115">
         <v>26</v>
@@ -7178,10 +6603,10 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D116">
         <v>20</v>
@@ -7192,10 +6617,10 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D117">
         <v>10</v>
@@ -7206,10 +6631,10 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D118">
         <v>13</v>
@@ -7220,10 +6645,10 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -7234,10 +6659,10 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -7248,10 +6673,10 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -7262,10 +6687,10 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -7276,10 +6701,10 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D123">
         <v>30</v>
@@ -7290,10 +6715,10 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D124">
         <v>14</v>
@@ -7304,10 +6729,10 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D125">
         <v>309</v>
@@ -7318,10 +6743,10 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -7332,10 +6757,10 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -7346,10 +6771,10 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" t="s">
         <v>132</v>
-      </c>
-      <c r="C128" t="s">
-        <v>133</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -7360,10 +6785,10 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -7374,10 +6799,10 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -7388,10 +6813,10 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -7402,10 +6827,10 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D132">
         <v>312</v>
@@ -7416,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D133">
         <v>8</v>
@@ -7430,10 +6855,10 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -7444,10 +6869,10 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -7458,10 +6883,10 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -7472,10 +6897,10 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -7486,10 +6911,10 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -7500,10 +6925,10 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D139">
         <v>29</v>
@@ -7514,10 +6939,10 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D140">
         <v>30</v>
@@ -7528,10 +6953,10 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D141">
         <v>31</v>
@@ -7542,12 +6967,12 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
-      </c>
-      <c r="D142" s="12">
+        <v>50</v>
+      </c>
+      <c r="D142" s="11">
         <v>0</v>
       </c>
     </row>
@@ -7556,10 +6981,10 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -7570,10 +6995,10 @@
         <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -7584,10 +7009,10 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -7598,10 +7023,10 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -7612,10 +7037,10 @@
         <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -7626,10 +7051,10 @@
         <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -7640,10 +7065,10 @@
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -7654,10 +7079,10 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -7668,10 +7093,10 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D151">
         <v>73</v>
@@ -7682,10 +7107,10 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -7696,10 +7121,10 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D153">
         <v>73</v>
@@ -7710,10 +7135,10 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D154">
         <v>4</v>
@@ -7724,10 +7149,10 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D155">
         <v>32</v>
@@ -7738,10 +7163,10 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -7752,10 +7177,10 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C157" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D157">
         <v>37</v>
@@ -7766,10 +7191,10 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -7780,10 +7205,10 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -7794,10 +7219,10 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D160">
         <v>12</v>
@@ -7808,10 +7233,10 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7822,10 +7247,10 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -7836,10 +7261,10 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -7850,10 +7275,10 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -7864,10 +7289,10 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -7878,13 +7303,869 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D166">
         <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB23B231-B769-482F-B528-EB12CFEED838}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="20">
+        <v>75</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76680A61-FD2C-4E97-855A-59F732E9B81A}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="12">
+        <v>500</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15">
+        <v>300</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA338F0-BFD0-4788-963F-7C359787317C}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E2C051F9-10CB-4C67-A376-D9B8C8B14451}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2AAE1C1D-7666-465C-9606-5BE4AFC26C75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="677" uniqueCount="164">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="687" uniqueCount="164">
   <si>
     <t>Phase</t>
   </si>
@@ -1235,31 +1235,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -1416,6 +1391,31 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1481,8 +1481,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AN45" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:AN45" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AN47" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:AN47" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
@@ -1543,14 +1543,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B3D4233-F20E-48BF-9756-1CD7CC13A260}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B3D4233-F20E-48BF-9756-1CD7CC13A260}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:E2" xr:uid="{C91D0DA2-D727-4E0F-8EC4-17B25C4E8387}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E4577221-1973-4BCF-BAF7-1AB70117714D}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{EA872DFA-99BE-4320-90D2-4CF33088C1B5}" name="Arm"/>
-    <tableColumn id="3" xr3:uid="{30298370-E7DF-4944-A120-B51B0265395A}" name="Neo Drug" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7E187766-C32E-4BD3-80B1-4B9D8AA592BE}" name="Neo Drug Dosage" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{54CEE142-B286-436E-BD32-02E0329ABA44}" name="Neo Drug Dosage Unit" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{30298370-E7DF-4944-A120-B51B0265395A}" name="Neo Drug" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7E187766-C32E-4BD3-80B1-4B9D8AA592BE}" name="Neo Drug Dosage" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{54CEE142-B286-436E-BD32-02E0329ABA44}" name="Neo Drug Dosage Unit" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1573,7 +1573,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15337EB3-855F-4F50-B6E4-CECAA2CCDEF0}" name="Table6" displayName="Table6" ref="A1:E23" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15337EB3-855F-4F50-B6E4-CECAA2CCDEF0}" name="Table6" displayName="Table6" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="A1:E23" xr:uid="{DB024295-AB18-4A25-866D-45881406AE0C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7325FB9-74D1-4609-855A-27A9CEC4B977}" name="NCT"/>
@@ -1885,8 +1885,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2099,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4965,6 +4965,133 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB46">
+        <v>20</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI46">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47">
+        <v>38</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB47">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI47">
+        <v>150</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>4.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4977,8 +5104,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7336,7 +7463,7 @@
     <col min="5" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2AAE1C1D-7666-465C-9606-5BE4AFC26C75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0BD252BF-9BA7-4783-94E5-493B11977E6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="687" uniqueCount="164">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="689" uniqueCount="166">
   <si>
     <t>Phase</t>
   </si>
@@ -522,12 +522,21 @@
   </si>
   <si>
     <t>Dropouts</t>
+  </si>
+  <si>
+    <t>% Serious AE</t>
+  </si>
+  <si>
+    <t>% Non Serious AE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1104,7 +1113,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1147,8 +1156,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1188,8 +1198,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1229,6 +1243,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1481,12 +1496,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AN47" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:AN47" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
-  <tableColumns count="40">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AP47" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:AP47" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+  <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
     <tableColumn id="3" xr3:uid="{812D4910-70D1-4BB6-9392-9EE81E6B607E}" name="Enrollment"/>
+    <tableColumn id="8" xr3:uid="{CFE8251D-EE80-4F6B-B4D7-9778DA29951D}" name="% Serious AE"/>
+    <tableColumn id="7" xr3:uid="{1BA1B69D-E3FC-4024-A433-38F8B81A1455}" name="% Non Serious AE"/>
     <tableColumn id="4" xr3:uid="{63022E9F-2D81-498D-8C05-BF852023D8B8}" name="Radiation"/>
     <tableColumn id="5" xr3:uid="{869510A2-1CE0-437C-9ED4-65B04D4A1360}" name="Randomized"/>
     <tableColumn id="10" xr3:uid="{03B678CC-1932-4A2C-AAB0-73B5893DD292}" name="Surgery"/>
@@ -1886,7 +1903,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2099,55 +2116,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.75" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="27.75" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="20.75" customWidth="1"/>
-    <col min="12" max="12" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="27.75" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="20.75" customWidth="1"/>
-    <col min="14" max="14" width="23.375" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="20.875" customWidth="1"/>
-    <col min="17" max="17" width="24.75" customWidth="1"/>
-    <col min="18" max="18" width="19.625" customWidth="1"/>
-    <col min="19" max="19" width="28.75" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="20.875" customWidth="1"/>
-    <col min="22" max="22" width="24.75" customWidth="1"/>
-    <col min="23" max="23" width="19.625" customWidth="1"/>
-    <col min="24" max="24" width="28.75" customWidth="1"/>
-    <col min="27" max="27" width="11.875" customWidth="1"/>
-    <col min="28" max="28" width="16.125" customWidth="1"/>
-    <col min="29" max="29" width="20.375" customWidth="1"/>
-    <col min="30" max="30" width="24.125" customWidth="1"/>
-    <col min="31" max="31" width="20.75" customWidth="1"/>
-    <col min="32" max="32" width="29.875" customWidth="1"/>
-    <col min="33" max="33" width="13.25" customWidth="1"/>
-    <col min="34" max="34" width="22.375" customWidth="1"/>
-    <col min="35" max="35" width="16.125" customWidth="1"/>
-    <col min="36" max="36" width="22.875" customWidth="1"/>
-    <col min="37" max="37" width="28.5" customWidth="1"/>
-    <col min="38" max="38" width="20.375" customWidth="1"/>
-    <col min="39" max="39" width="29.875" customWidth="1"/>
-    <col min="40" max="40" width="12.125" customWidth="1"/>
-    <col min="41" max="41" width="22.375" customWidth="1"/>
+    <col min="14" max="14" width="24.125" customWidth="1"/>
+    <col min="15" max="15" width="20.75" customWidth="1"/>
+    <col min="16" max="16" width="23.375" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="20.875" customWidth="1"/>
+    <col min="19" max="19" width="24.75" customWidth="1"/>
+    <col min="20" max="20" width="19.625" customWidth="1"/>
+    <col min="21" max="21" width="28.75" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="20.875" customWidth="1"/>
+    <col min="24" max="24" width="24.75" customWidth="1"/>
+    <col min="25" max="25" width="19.625" customWidth="1"/>
+    <col min="26" max="26" width="28.75" customWidth="1"/>
+    <col min="29" max="29" width="11.875" customWidth="1"/>
+    <col min="30" max="30" width="16.125" customWidth="1"/>
+    <col min="31" max="31" width="20.375" customWidth="1"/>
+    <col min="32" max="32" width="24.125" customWidth="1"/>
+    <col min="33" max="33" width="20.75" customWidth="1"/>
+    <col min="34" max="34" width="29.875" customWidth="1"/>
+    <col min="35" max="35" width="13.25" customWidth="1"/>
+    <col min="36" max="36" width="22.375" customWidth="1"/>
+    <col min="37" max="37" width="16.125" customWidth="1"/>
+    <col min="38" max="38" width="22.875" customWidth="1"/>
+    <col min="39" max="39" width="28.5" customWidth="1"/>
+    <col min="40" max="40" width="20.375" customWidth="1"/>
+    <col min="41" max="41" width="29.875" customWidth="1"/>
+    <col min="42" max="42" width="12.125" customWidth="1"/>
+    <col min="43" max="43" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>158</v>
       </c>
@@ -2158,118 +2177,124 @@
         <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2279,71 +2304,77 @@
       <c r="C2">
         <v>122</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="D2" s="21">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.8992</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
         <v>54</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>125</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2">
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2">
         <v>1.5</v>
       </c>
-      <c r="X2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="b">
-        <v>0</v>
-      </c>
       <c r="Z2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP2">
         <v>16.64</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2353,11 +2384,11 @@
       <c r="C3">
         <v>60</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="D3" s="21">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.67720000000000002</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2366,34 +2397,40 @@
         <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>175</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
       </c>
-      <c r="X3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="b">
-        <v>0</v>
-      </c>
       <c r="Z3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3">
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2403,23 +2440,27 @@
       <c r="C4">
         <v>131</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+      <c r="D4" s="24">
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.96879999999999999</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2433,43 +2474,45 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AD4" s="11">
         <v>30</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
+      <c r="AF4" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
-      <c r="AM4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="11">
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2479,62 +2522,68 @@
       <c r="C5">
         <v>129</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+      <c r="D5" s="24">
+        <v>0.3659</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.97560000000000002</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11" t="s">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>20</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AE5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AF5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>69</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>110</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
         <v>55</v>
       </c>
-      <c r="AK5" t="b">
-        <v>0</v>
-      </c>
       <c r="AM5" t="b">
         <v>0</v>
       </c>
-      <c r="AN5">
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5">
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2544,62 +2593,68 @@
       <c r="C6">
         <v>65</v>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+      <c r="D6" s="24">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.95309999999999995</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
         <v>69</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>110</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>55</v>
       </c>
-      <c r="AD6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AF6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>71</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>20</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AL6" t="s">
         <v>65</v>
       </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
       <c r="AM6" t="b">
         <v>0</v>
       </c>
-      <c r="AN6">
+      <c r="AO6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2609,53 +2664,59 @@
       <c r="C7">
         <v>41</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12" t="b">
+      <c r="D7" s="21">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="E7" s="21">
         <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>1</v>
+      <c r="G7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
         <v>74</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>500</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>65</v>
       </c>
-      <c r="AD7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7">
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP7">
         <v>6.54</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2665,53 +2726,59 @@
       <c r="C8">
         <v>40</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12" t="b">
-        <v>1</v>
+      <c r="D8" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.97499999999999998</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>1</v>
+      <c r="G8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
         <v>74</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>2000</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>65</v>
       </c>
-      <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8">
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8">
         <v>9.91</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2721,62 +2788,68 @@
       <c r="C9">
         <v>272</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
+      <c r="D9" s="22">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.95440000000000003</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>175</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>74</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>2000</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>65</v>
       </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="X9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
       </c>
       <c r="Z9" t="b">
         <v>1</v>
       </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9">
+      <c r="AA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP9">
         <v>26.3</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2786,47 +2859,53 @@
       <c r="C10">
         <v>273</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
+      <c r="D10" s="22">
+        <v>0.44569999999999999</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.93020000000000003</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>175</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>55</v>
       </c>
-      <c r="X10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>0</v>
-      </c>
       <c r="Z10" t="b">
         <v>1</v>
       </c>
-      <c r="AM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN10">
+      <c r="AA10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10">
         <v>26.3</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2836,63 +2915,67 @@
       <c r="C11">
         <v>46</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12" t="b">
-        <v>1</v>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="12" t="b">
-        <v>1</v>
+      <c r="H11" t="b">
+        <v>0</v>
       </c>
       <c r="I11" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
         <v>150</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="12">
+      <c r="Q11" s="12">
         <v>500</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="12">
-        <v>1</v>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="S11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
@@ -2903,12 +2986,14 @@
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
+      <c r="AM11" s="12"/>
       <c r="AN11" s="12"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="12"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2918,62 +3003,68 @@
       <c r="C12">
         <v>48</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12" t="b">
-        <v>1</v>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.25929999999999997</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>150</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>55</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>74</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>20000</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="X12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="b">
-        <v>0</v>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
       </c>
       <c r="Z12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP12">
         <v>19.7</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2983,11 +3074,11 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
+      <c r="D13" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2998,47 +3089,53 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="X13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="b">
-        <v>1</v>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
         <v>86</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>60</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>65</v>
       </c>
-      <c r="AD13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>52</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>10</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>53</v>
       </c>
-      <c r="AK13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL13">
-        <v>1</v>
-      </c>
       <c r="AM13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3048,11 +3145,11 @@
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
+      <c r="D14" s="21">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3063,47 +3160,53 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="X14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="b">
-        <v>1</v>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
         <v>86</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>80</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>65</v>
       </c>
-      <c r="AD14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>52</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>10</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AL14" t="s">
         <v>53</v>
       </c>
-      <c r="AK14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL14">
-        <v>1</v>
-      </c>
       <c r="AM14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3113,11 +3216,11 @@
       <c r="C15">
         <v>76</v>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
+      <c r="D15" s="21">
+        <v>0.3553</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.98680000000000001</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -3128,47 +3231,53 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="X15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="b">
-        <v>1</v>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
         <v>86</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>60</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>65</v>
       </c>
-      <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>52</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>10</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AL15" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" t="b">
-        <v>1</v>
-      </c>
       <c r="AM15" t="b">
         <v>1</v>
       </c>
-      <c r="AN15">
+      <c r="AO15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP15">
         <v>10.8</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3178,62 +3287,68 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
+      <c r="D16" s="22">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E16" s="22">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>150</v>
-      </c>
-      <c r="K16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16">
-        <v>200</v>
       </c>
       <c r="M16" t="s">
         <v>55</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16">
+        <v>200</v>
+      </c>
+      <c r="O16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" t="s">
         <v>96</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>100</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>65</v>
       </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="b">
+      <c r="S16" t="b">
         <v>0</v>
       </c>
       <c r="Z16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3243,62 +3358,68 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>150</v>
-      </c>
-      <c r="K17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17">
-        <v>200</v>
       </c>
       <c r="M17" t="s">
         <v>55</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17">
+        <v>200</v>
+      </c>
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" t="s">
         <v>96</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>100</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="b">
+      <c r="S17" t="b">
         <v>0</v>
       </c>
       <c r="Z17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3308,62 +3429,68 @@
       <c r="C18">
         <v>7</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>150</v>
-      </c>
-      <c r="K18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18">
-        <v>200</v>
       </c>
       <c r="M18" t="s">
         <v>55</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18">
+        <v>200</v>
+      </c>
+      <c r="O18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" t="s">
         <v>96</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>150</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="b">
+      <c r="S18" t="b">
         <v>0</v>
       </c>
       <c r="Z18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3373,65 +3500,71 @@
       <c r="C19">
         <v>138</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
+      <c r="D19" s="22">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>150</v>
-      </c>
-      <c r="K19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19">
-        <v>200</v>
       </c>
       <c r="M19" t="s">
         <v>55</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" t="s">
         <v>96</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>150</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>65</v>
       </c>
-      <c r="Q19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="b">
+      <c r="S19" t="b">
         <v>0</v>
       </c>
       <c r="Z19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>15.6</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3441,65 +3574,71 @@
       <c r="C20">
         <v>66</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
+      <c r="D20" s="22">
+        <v>0.36509999999999998</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.98409999999999997</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>150</v>
-      </c>
-      <c r="K20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20">
-        <v>200</v>
       </c>
       <c r="M20" t="s">
         <v>55</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" t="s">
         <v>101</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>150</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
+      <c r="S20" t="b">
         <v>0</v>
       </c>
       <c r="Z20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20">
         <v>19.3</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -3509,38 +3648,44 @@
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
+      <c r="D21" s="22">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="X21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
       </c>
       <c r="Z21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3550,38 +3695,44 @@
       <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
+      <c r="D22" s="22">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="X22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="b">
-        <v>0</v>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
       </c>
       <c r="Z22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3591,41 +3742,47 @@
       <c r="C23">
         <v>94</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
+      <c r="D23" s="22">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="X23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="b">
-        <v>0</v>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
       </c>
       <c r="Z23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP23">
         <v>15.6</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -3635,11 +3792,11 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
+      <c r="D24" s="23">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.98870000000000002</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -3650,50 +3807,56 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="X24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>1</v>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="s">
         <v>52</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>10</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>53</v>
       </c>
-      <c r="AD24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="AF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>62</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <v>50</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AL24" t="s">
         <v>55</v>
       </c>
-      <c r="AK24" t="b">
-        <v>0</v>
-      </c>
       <c r="AM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP24">
         <v>12.6</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3703,11 +3866,11 @@
       <c r="C25">
         <v>13</v>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
+      <c r="D25" s="24">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.84619999999999995</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -3718,50 +3881,56 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="X25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>1</v>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
         <v>52</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>10</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>53</v>
       </c>
-      <c r="AD25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="AF25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>111</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>50</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AL25" t="s">
         <v>55</v>
       </c>
-      <c r="AK25" t="b">
-        <v>0</v>
-      </c>
       <c r="AM25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3771,38 +3940,44 @@
       <c r="C26">
         <v>42</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
+      <c r="D26" s="22">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.97560000000000002</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="X26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
       </c>
       <c r="Z26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3812,44 +3987,50 @@
       <c r="C27">
         <v>21</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
+      <c r="D27" s="22">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="E27" s="22">
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>75</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>55</v>
       </c>
-      <c r="X27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
       <c r="Z27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3859,11 +4040,11 @@
       <c r="C28">
         <v>47</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
+      <c r="D28" s="22">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0.57140000000000002</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -3877,35 +4058,41 @@
       <c r="I28" t="b">
         <v>1</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>150</v>
-      </c>
-      <c r="K28" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28">
-        <v>200</v>
       </c>
       <c r="M28" t="s">
         <v>55</v>
       </c>
-      <c r="X28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
+      <c r="N28">
+        <v>200</v>
+      </c>
+      <c r="O28" t="s">
+        <v>55</v>
       </c>
       <c r="Z28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28">
         <v>13.17</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -3915,11 +4102,11 @@
       <c r="C29">
         <v>52</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
+      <c r="D29" s="22">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0.42309999999999998</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -3933,35 +4120,41 @@
       <c r="I29" t="b">
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>150</v>
-      </c>
-      <c r="K29" t="s">
-        <v>55</v>
-      </c>
-      <c r="L29">
-        <v>200</v>
       </c>
       <c r="M29" t="s">
         <v>55</v>
       </c>
-      <c r="X29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
+      <c r="N29">
+        <v>200</v>
+      </c>
+      <c r="O29" t="s">
+        <v>55</v>
       </c>
       <c r="Z29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP29">
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -3971,59 +4164,65 @@
       <c r="C30">
         <v>120</v>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
+      <c r="D30" s="21">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.88139999999999996</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="X30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="b">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="s">
         <v>124</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>600</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AE30" t="s">
         <v>65</v>
       </c>
-      <c r="AD30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="s">
+      <c r="AF30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>125</v>
       </c>
-      <c r="AI30">
+      <c r="AK30">
         <v>1000</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AL30" t="s">
         <v>65</v>
       </c>
-      <c r="AK30" t="b">
-        <v>0</v>
-      </c>
       <c r="AM30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -4033,47 +4232,53 @@
       <c r="C31">
         <v>120</v>
       </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
+      <c r="D31" s="21">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0.67800000000000005</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="X31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="b">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="s">
         <v>125</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>1500</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AE31" t="s">
         <v>65</v>
       </c>
-      <c r="AD31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AF31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4083,62 +4288,68 @@
       <c r="C32">
         <v>317</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="b">
-        <v>1</v>
+      <c r="D32" s="22">
+        <v>0.38329999999999997</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0.97330000000000005</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32">
         <v>75</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>55</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>101</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>10</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>53</v>
       </c>
-      <c r="Q32" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="X32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
       </c>
       <c r="Z32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP32">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4148,62 +4359,68 @@
       <c r="C33">
         <v>320</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11" t="b">
-        <v>1</v>
+      <c r="D33" s="22">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0.96730000000000005</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>75</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>55</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>52</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>10</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>53</v>
       </c>
-      <c r="Q33" t="b">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="X33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
       </c>
       <c r="Z33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP33">
         <v>15.7</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -4213,71 +4430,77 @@
       <c r="C34">
         <v>29</v>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
+      <c r="D34" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0.8</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="X34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>1</v>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="s">
         <v>138</v>
       </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>0.4</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AE34" t="s">
         <v>139</v>
       </c>
-      <c r="AD34" t="b">
-        <v>0</v>
-      </c>
       <c r="AF34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI34">
         <v>0.5</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AJ34" t="s">
         <v>52</v>
       </c>
-      <c r="AI34">
+      <c r="AK34">
         <v>10</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AL34" t="s">
         <v>53</v>
       </c>
-      <c r="AK34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL34">
-        <v>1</v>
-      </c>
       <c r="AM34" t="b">
         <v>1</v>
       </c>
       <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP34">
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -4287,71 +4510,77 @@
       <c r="C35">
         <v>30</v>
       </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
+      <c r="D35" s="21">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.82140000000000002</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="X35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>1</v>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="s">
         <v>138</v>
       </c>
-      <c r="AB35">
+      <c r="AD35">
         <v>0.4</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AE35" t="s">
         <v>139</v>
       </c>
-      <c r="AD35" t="b">
-        <v>0</v>
-      </c>
       <c r="AF35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI35">
         <v>0.5</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AJ35" t="s">
         <v>52</v>
       </c>
-      <c r="AI35">
+      <c r="AK35">
         <v>10</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AL35" t="s">
         <v>53</v>
       </c>
-      <c r="AK35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL35">
-        <v>1</v>
-      </c>
       <c r="AM35" t="b">
         <v>1</v>
       </c>
       <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP35">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -4361,53 +4590,59 @@
       <c r="C36">
         <v>31</v>
       </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
+      <c r="D36" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0.9</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="X36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>1</v>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
         <v>52</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <v>10</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AE36" t="s">
         <v>53</v>
       </c>
-      <c r="AD36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AM36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN36">
+      <c r="AF36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP36">
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4417,59 +4652,65 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
+      <c r="D37" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0.875</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="X37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>1</v>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AA37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <v>20</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AE37" t="s">
         <v>65</v>
       </c>
-      <c r="AD37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="s">
+      <c r="AF37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>62</v>
       </c>
-      <c r="AI37">
+      <c r="AK37">
         <v>60</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AL37" t="s">
         <v>65</v>
       </c>
-      <c r="AK37" t="b">
-        <v>0</v>
-      </c>
       <c r="AM37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -4479,59 +4720,65 @@
       <c r="C38">
         <v>7</v>
       </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
+      <c r="D38" s="21">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.83330000000000004</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="X38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>1</v>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AA38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="s">
         <v>144</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <v>40</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AE38" t="s">
         <v>65</v>
       </c>
-      <c r="AD38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="s">
+      <c r="AF38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>62</v>
       </c>
-      <c r="AI38">
+      <c r="AK38">
         <v>60</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AL38" t="s">
         <v>65</v>
       </c>
-      <c r="AK38" t="b">
-        <v>0</v>
-      </c>
       <c r="AM38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -4541,59 +4788,65 @@
       <c r="C39">
         <v>8</v>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
+      <c r="D39" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0.75</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
-      <c r="X39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>1</v>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AA39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="s">
         <v>144</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <v>40</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AE39" t="s">
         <v>65</v>
       </c>
-      <c r="AD39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="s">
+      <c r="AF39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>62</v>
       </c>
-      <c r="AI39">
+      <c r="AK39">
         <v>75</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AL39" t="s">
         <v>65</v>
       </c>
-      <c r="AK39" t="b">
-        <v>0</v>
-      </c>
       <c r="AM39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
@@ -4603,62 +4856,68 @@
       <c r="C40">
         <v>75</v>
       </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
+      <c r="D40" s="21">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0.95889999999999997</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
-      <c r="X40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>1</v>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AA40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="s">
         <v>144</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <v>40</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AE40" t="s">
         <v>65</v>
       </c>
-      <c r="AD40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="s">
+      <c r="AF40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>62</v>
       </c>
-      <c r="AI40">
+      <c r="AK40">
         <v>75</v>
       </c>
-      <c r="AJ40" t="s">
+      <c r="AL40" t="s">
         <v>65</v>
       </c>
-      <c r="AK40" t="b">
-        <v>0</v>
-      </c>
       <c r="AM40" t="b">
         <v>0</v>
       </c>
-      <c r="AN40">
+      <c r="AO40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP40">
         <v>10.3</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -4668,62 +4927,68 @@
       <c r="C41">
         <v>76</v>
       </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
+      <c r="D41" s="21">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0.95889999999999997</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
-      <c r="X41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>1</v>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
         <v>144</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <v>40</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AE41" t="s">
         <v>65</v>
       </c>
-      <c r="AD41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="s">
+      <c r="AF41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>62</v>
       </c>
-      <c r="AI41">
+      <c r="AK41">
         <v>150</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AL41" t="s">
         <v>65</v>
       </c>
-      <c r="AK41" t="b">
-        <v>0</v>
-      </c>
       <c r="AM41" t="b">
         <v>0</v>
       </c>
-      <c r="AN41">
+      <c r="AO41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP41">
         <v>10.7</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -4733,62 +4998,68 @@
       <c r="C42">
         <v>36</v>
       </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
+      <c r="D42" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.96879999999999999</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="X42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>1</v>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
         <v>144</v>
       </c>
-      <c r="AB42">
+      <c r="AD42">
         <v>40</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AE42" t="s">
         <v>65</v>
       </c>
-      <c r="AD42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="s">
+      <c r="AF42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>62</v>
       </c>
-      <c r="AI42">
+      <c r="AK42">
         <v>75</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AL42" t="s">
         <v>65</v>
       </c>
-      <c r="AK42" t="b">
-        <v>0</v>
-      </c>
       <c r="AM42" t="b">
         <v>0</v>
       </c>
-      <c r="AN42">
+      <c r="AO42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP42">
         <v>4.7</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4798,56 +5069,62 @@
       <c r="C43">
         <v>12</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
+      <c r="D43" s="21">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="E43" s="21">
+        <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>150</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
         <v>55</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>154</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>500</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>65</v>
       </c>
-      <c r="Q43" t="b">
-        <v>0</v>
-      </c>
-      <c r="X43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
+      <c r="S43" t="b">
         <v>0</v>
       </c>
       <c r="Z43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -4857,56 +5134,62 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
+      <c r="D44" s="21">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44">
         <v>150</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>55</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>154</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>500</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>65</v>
       </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
+      <c r="S44" t="b">
         <v>0</v>
       </c>
       <c r="Z44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4916,56 +5199,62 @@
       <c r="C45">
         <v>110</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
+      <c r="D45" s="21">
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.99070000000000003</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45">
         <v>150</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
         <v>55</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>154</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>400</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>65</v>
       </c>
-      <c r="Q45" t="b">
-        <v>0</v>
-      </c>
-      <c r="X45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
+      <c r="S45" t="b">
         <v>0</v>
       </c>
       <c r="Z45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -4975,59 +5264,65 @@
       <c r="C46">
         <v>9</v>
       </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
+      <c r="D46" s="21">
+        <v>0.1111</v>
+      </c>
+      <c r="E46" s="21">
         <v>1</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="X46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>1</v>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AA46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="s">
         <v>144</v>
       </c>
-      <c r="AB46">
+      <c r="AD46">
         <v>20</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AE46" t="s">
         <v>65</v>
       </c>
-      <c r="AD46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="s">
+      <c r="AF46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>62</v>
       </c>
-      <c r="AI46">
+      <c r="AK46">
         <v>75</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AL46" t="s">
         <v>65</v>
       </c>
-      <c r="AK46" t="b">
-        <v>0</v>
-      </c>
       <c r="AM46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -5037,58 +5332,64 @@
       <c r="C47">
         <v>38</v>
       </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
+      <c r="D47" s="21">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="E47" s="21">
+        <v>0.8649</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
-      <c r="X47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>1</v>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
       </c>
       <c r="Z47" t="b">
         <v>0</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="s">
         <v>144</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <v>40</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AE47" t="s">
         <v>65</v>
       </c>
-      <c r="AD47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="s">
+      <c r="AF47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>62</v>
       </c>
-      <c r="AI47">
+      <c r="AK47">
         <v>150</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AL47" t="s">
         <v>65</v>
       </c>
-      <c r="AK47" t="b">
-        <v>0</v>
-      </c>
       <c r="AM47" t="b">
         <v>0</v>
       </c>
-      <c r="AN47">
+      <c r="AO47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP47">
         <v>4.7</v>
       </c>
     </row>
@@ -5104,7 +5405,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0BD252BF-9BA7-4783-94E5-493B11977E6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FAFF2FD2-D165-4FBF-BF0D-E27ADD6EF982}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,23 @@
     <sheet name="Concomitant" sheetId="6" r:id="rId5"/>
     <sheet name="Concomitant Tem" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="689" uniqueCount="166">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="690" uniqueCount="167">
   <si>
     <t>Phase</t>
   </si>
@@ -528,6 +534,9 @@
   </si>
   <si>
     <t>% Non Serious AE</t>
+  </si>
+  <si>
+    <t>Burden</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1257,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
@@ -1496,9 +1508,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AP47" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:AP47" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
-  <tableColumns count="42">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AQ47" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:AQ47" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+  <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
     <tableColumn id="3" xr3:uid="{812D4910-70D1-4BB6-9392-9EE81E6B607E}" name="Enrollment"/>
@@ -1507,6 +1519,10 @@
     <tableColumn id="4" xr3:uid="{63022E9F-2D81-498D-8C05-BF852023D8B8}" name="Radiation"/>
     <tableColumn id="5" xr3:uid="{869510A2-1CE0-437C-9ED4-65B04D4A1360}" name="Randomized"/>
     <tableColumn id="10" xr3:uid="{03B678CC-1932-4A2C-AAB0-73B5893DD292}" name="Surgery"/>
+    <tableColumn id="51" xr3:uid="{41084609-8915-4406-AFEA-4170D289E825}" name="Universal IV"/>
+    <tableColumn id="12" xr3:uid="{13578889-6BE7-4CFA-979E-2BB08302CFB7}" name="Burden" dataDxfId="0">
+      <calculatedColumnFormula>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="11" xr3:uid="{FA550D66-7A8A-4FDA-A4AD-2318054511FD}" name="Concomitant"/>
     <tableColumn id="20" xr3:uid="{74EFA571-B2A7-46A2-9E15-B8698BFB18EB}" name="Adjuvant"/>
     <tableColumn id="21" xr3:uid="{B9C7D220-7D77-4400-A952-69BE0E445DC4}" name="Adjuvant TEM"/>
@@ -1539,7 +1555,6 @@
     <tableColumn id="48" xr3:uid="{F432B79C-73D3-4A03-BEAA-9717DB02AAF7}" name="Dosage Unit for Treatment Drug 2"/>
     <tableColumn id="49" xr3:uid="{7CDC0725-4899-4386-8C3B-586520003C03}" name="IV for treatment drug 2"/>
     <tableColumn id="50" xr3:uid="{CB136238-FA44-4241-99F2-4F5465EADF7C}" name="Duration of IV for Treatment Drug 2"/>
-    <tableColumn id="51" xr3:uid="{41084609-8915-4406-AFEA-4170D289E825}" name="Universal IV"/>
     <tableColumn id="52" xr3:uid="{FA548A2F-D194-4D2E-8CB9-F3522B309C6B}" name="Overall Survival (months)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1547,7 +1562,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5575AAA7-D95E-4197-9C82-F09ADC5AE257}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5575AAA7-D95E-4197-9C82-F09ADC5AE257}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:D166" xr:uid="{9117CEBF-E6D3-44F7-9FE3-CA1EB339F466}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{74BA0FDB-5710-4882-8060-FAB71C74C8A1}" name="NCT"/>
@@ -1560,21 +1575,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B3D4233-F20E-48BF-9756-1CD7CC13A260}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B3D4233-F20E-48BF-9756-1CD7CC13A260}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:E2" xr:uid="{C91D0DA2-D727-4E0F-8EC4-17B25C4E8387}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E4577221-1973-4BCF-BAF7-1AB70117714D}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{EA872DFA-99BE-4320-90D2-4CF33088C1B5}" name="Arm"/>
-    <tableColumn id="3" xr3:uid="{30298370-E7DF-4944-A120-B51B0265395A}" name="Neo Drug" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7E187766-C32E-4BD3-80B1-4B9D8AA592BE}" name="Neo Drug Dosage" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{54CEE142-B286-436E-BD32-02E0329ABA44}" name="Neo Drug Dosage Unit" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{30298370-E7DF-4944-A120-B51B0265395A}" name="Neo Drug" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7E187766-C32E-4BD3-80B1-4B9D8AA592BE}" name="Neo Drug Dosage" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{54CEE142-B286-436E-BD32-02E0329ABA44}" name="Neo Drug Dosage Unit" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB44517B-C1A6-46E9-9D24-24F7E214F6B7}" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB44517B-C1A6-46E9-9D24-24F7E214F6B7}" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:G17" xr:uid="{B1746B79-9F7F-404B-A6E8-83AEB985AB71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EE6D7B2A-E249-435B-A896-05A7E74A801F}" name="NCT"/>
@@ -1590,7 +1605,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15337EB3-855F-4F50-B6E4-CECAA2CCDEF0}" name="Table6" displayName="Table6" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15337EB3-855F-4F50-B6E4-CECAA2CCDEF0}" name="Table6" displayName="Table6" ref="A1:E23" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
   <autoFilter ref="A1:E23" xr:uid="{DB024295-AB18-4A25-866D-45881406AE0C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7325FB9-74D1-4609-855A-27A9CEC4B977}" name="NCT"/>
@@ -1902,7 +1917,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2116,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2131,42 +2146,42 @@
     <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="20.625" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="20.75" customWidth="1"/>
-    <col min="14" max="14" width="24.125" customWidth="1"/>
+    <col min="9" max="10" width="29.875" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="27.75" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="20.75" customWidth="1"/>
-    <col min="16" max="16" width="23.375" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="24.75" customWidth="1"/>
-    <col min="20" max="20" width="19.625" customWidth="1"/>
-    <col min="21" max="21" width="28.75" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="20.875" customWidth="1"/>
-    <col min="24" max="24" width="24.75" customWidth="1"/>
-    <col min="25" max="25" width="19.625" customWidth="1"/>
-    <col min="26" max="26" width="28.75" customWidth="1"/>
-    <col min="29" max="29" width="11.875" customWidth="1"/>
-    <col min="30" max="30" width="16.125" customWidth="1"/>
-    <col min="31" max="31" width="20.375" customWidth="1"/>
-    <col min="32" max="32" width="24.125" customWidth="1"/>
-    <col min="33" max="33" width="20.75" customWidth="1"/>
-    <col min="34" max="34" width="29.875" customWidth="1"/>
-    <col min="35" max="35" width="13.25" customWidth="1"/>
-    <col min="36" max="36" width="22.375" customWidth="1"/>
-    <col min="37" max="37" width="16.125" customWidth="1"/>
-    <col min="38" max="38" width="22.875" customWidth="1"/>
-    <col min="39" max="39" width="28.5" customWidth="1"/>
-    <col min="40" max="40" width="20.375" customWidth="1"/>
-    <col min="41" max="41" width="29.875" customWidth="1"/>
-    <col min="42" max="42" width="12.125" customWidth="1"/>
-    <col min="43" max="43" width="22.375" customWidth="1"/>
+    <col min="16" max="16" width="24.125" customWidth="1"/>
+    <col min="17" max="17" width="20.75" customWidth="1"/>
+    <col min="18" max="18" width="23.375" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="20.875" customWidth="1"/>
+    <col min="21" max="21" width="24.75" customWidth="1"/>
+    <col min="22" max="22" width="19.625" customWidth="1"/>
+    <col min="23" max="23" width="28.75" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="20.875" customWidth="1"/>
+    <col min="26" max="26" width="24.75" customWidth="1"/>
+    <col min="27" max="27" width="19.625" customWidth="1"/>
+    <col min="28" max="28" width="28.75" customWidth="1"/>
+    <col min="31" max="31" width="11.875" customWidth="1"/>
+    <col min="32" max="32" width="16.125" customWidth="1"/>
+    <col min="33" max="33" width="20.375" customWidth="1"/>
+    <col min="34" max="34" width="24.125" customWidth="1"/>
+    <col min="35" max="35" width="20.75" customWidth="1"/>
+    <col min="36" max="36" width="29.875" customWidth="1"/>
+    <col min="37" max="37" width="13.25" customWidth="1"/>
+    <col min="38" max="38" width="22.375" customWidth="1"/>
+    <col min="39" max="39" width="16.125" customWidth="1"/>
+    <col min="40" max="40" width="22.875" customWidth="1"/>
+    <col min="41" max="41" width="28.5" customWidth="1"/>
+    <col min="42" max="42" width="20.375" customWidth="1"/>
+    <col min="44" max="44" width="12.125" customWidth="1"/>
+    <col min="45" max="45" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>158</v>
       </c>
@@ -2192,109 +2207,112 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2322,59 +2340,63 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
+      <c r="J2" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>10</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>125</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2">
         <v>1.5</v>
       </c>
-      <c r="Z2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
       <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>16.64</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2400,37 +2422,41 @@
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>175</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>0</v>
-      </c>
       <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2455,14 +2481,19 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -2476,43 +2507,42 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11" t="s">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AF4" s="11">
         <v>30</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
+      <c r="AH4" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
-      <c r="AO4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="11">
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2537,53 +2567,57 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11" t="s">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>20</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AG5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AH5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
         <v>69</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>110</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AN5" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" t="b">
-        <v>0</v>
-      </c>
       <c r="AO5" t="b">
         <v>0</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2608,53 +2642,57 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
         <v>69</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>110</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>55</v>
       </c>
-      <c r="AF6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AH6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
         <v>71</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>20</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AN6" t="s">
         <v>65</v>
       </c>
-      <c r="AM6" t="b">
-        <v>0</v>
-      </c>
       <c r="AO6" t="b">
         <v>0</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2679,44 +2717,48 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="b">
-        <v>1</v>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="AB7" t="b">
         <v>0</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
         <v>74</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>500</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP7">
+      <c r="AH7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
         <v>6.54</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2741,44 +2783,48 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
         <v>74</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>2000</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>65</v>
       </c>
-      <c r="AF8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP8">
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
         <v>9.91</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2806,50 +2852,54 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
+      <c r="J9" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>175</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>55</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>74</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>2000</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>65</v>
       </c>
-      <c r="S9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="b">
-        <v>0</v>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
       </c>
       <c r="AB9" t="b">
         <v>1</v>
       </c>
-      <c r="AO9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP9">
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
         <v>26.3</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2875,37 +2925,41 @@
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>175</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="b">
-        <v>0</v>
-      </c>
       <c r="AB10" t="b">
         <v>1</v>
       </c>
-      <c r="AO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP10">
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
         <v>26.3</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2930,54 +2984,59 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="b">
-        <v>1</v>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K11" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
         <v>150</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="S11" s="12">
         <v>500</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="T11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="12">
-        <v>1</v>
-      </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="U11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>1</v>
+      </c>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
@@ -2988,12 +3047,11 @@
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
       <c r="AN11" s="12"/>
-      <c r="AO11" t="b">
-        <v>1</v>
-      </c>
+      <c r="AO11" s="12"/>
       <c r="AP11" s="12"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="12"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3021,50 +3079,54 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
+      <c r="J12" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>150</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>55</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>74</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>20000</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>65</v>
       </c>
-      <c r="S12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA12" t="b">
-        <v>0</v>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
       </c>
       <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>19.7</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3090,52 +3152,56 @@
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
       </c>
       <c r="AB13" t="b">
         <v>0</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
         <v>86</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>60</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AG13" t="s">
         <v>65</v>
       </c>
-      <c r="AF13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
         <v>52</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>10</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>53</v>
       </c>
-      <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
       <c r="AO13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3161,52 +3227,56 @@
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
       </c>
       <c r="AB14" t="b">
         <v>0</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
         <v>86</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>80</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AG14" t="s">
         <v>65</v>
       </c>
-      <c r="AF14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
         <v>52</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>10</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>53</v>
       </c>
-      <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
       <c r="AO14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3232,52 +3302,56 @@
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
       </c>
       <c r="AB15" t="b">
         <v>0</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
         <v>86</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>60</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AG15" t="s">
         <v>65</v>
       </c>
-      <c r="AF15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
         <v>52</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>10</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AN15" t="s">
         <v>53</v>
       </c>
-      <c r="AM15" t="b">
-        <v>1</v>
-      </c>
       <c r="AO15" t="b">
         <v>1</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>10.8</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3303,52 +3377,56 @@
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>150</v>
-      </c>
-      <c r="M16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16">
-        <v>200</v>
       </c>
       <c r="O16" t="s">
         <v>55</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16">
+        <v>200</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" t="s">
         <v>96</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>100</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>65</v>
       </c>
-      <c r="S16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="b">
+      <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3374,52 +3452,56 @@
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>150</v>
-      </c>
-      <c r="M17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17">
-        <v>200</v>
       </c>
       <c r="O17" t="s">
         <v>55</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17">
+        <v>200</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" t="s">
         <v>96</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>100</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>65</v>
       </c>
-      <c r="S17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="b">
+      <c r="U17" t="b">
         <v>0</v>
       </c>
       <c r="AB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3445,52 +3527,56 @@
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>150</v>
-      </c>
-      <c r="M18" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18">
-        <v>200</v>
       </c>
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>200</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
         <v>96</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>150</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>65</v>
       </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="b">
+      <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3516,55 +3602,59 @@
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>150</v>
-      </c>
-      <c r="M19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19">
-        <v>200</v>
       </c>
       <c r="O19" t="s">
         <v>55</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19">
+        <v>200</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" t="s">
         <v>96</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>150</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>65</v>
       </c>
-      <c r="S19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="b">
+      <c r="U19" t="b">
         <v>0</v>
       </c>
       <c r="AB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
         <v>15.6</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3590,55 +3680,59 @@
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>150</v>
-      </c>
-      <c r="M20" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20">
-        <v>200</v>
       </c>
       <c r="O20" t="s">
         <v>55</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20">
+        <v>200</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" t="s">
         <v>101</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>150</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>65</v>
       </c>
-      <c r="S20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="b">
+      <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="AB20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
         <v>19.3</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -3666,26 +3760,30 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="J21" t="b">
-        <v>1</v>
+      <c r="J21" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="Z21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="b">
-        <v>0</v>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
       </c>
       <c r="AB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3713,26 +3811,30 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="J22" t="b">
-        <v>1</v>
+      <c r="J22" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="Z22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="b">
-        <v>0</v>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
       </c>
       <c r="AB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3760,29 +3862,33 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="J23" t="b">
-        <v>1</v>
+      <c r="J23" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="Z23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="b">
-        <v>0</v>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
       </c>
       <c r="AB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
         <v>15.6</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -3808,55 +3914,59 @@
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
       </c>
       <c r="AB24" t="b">
         <v>0</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
         <v>52</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>10</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AG24" t="s">
         <v>53</v>
       </c>
-      <c r="AF24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AJ24" t="s">
+      <c r="AH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="s">
         <v>62</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <v>50</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AN24" t="s">
         <v>55</v>
       </c>
-      <c r="AM24" t="b">
-        <v>0</v>
-      </c>
       <c r="AO24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
         <v>12.6</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3882,55 +3992,59 @@
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Low</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
       </c>
       <c r="AB25" t="b">
         <v>0</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="s">
         <v>52</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>10</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>53</v>
       </c>
-      <c r="AF25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="s">
+      <c r="AH25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="s">
         <v>111</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>50</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AN25" t="s">
         <v>55</v>
       </c>
-      <c r="AM25" t="b">
-        <v>0</v>
-      </c>
       <c r="AO25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3958,26 +4072,30 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="J26" t="b">
-        <v>1</v>
+      <c r="J26" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="Z26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="b">
-        <v>0</v>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
       </c>
       <c r="AB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -4003,34 +4121,38 @@
         <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>75</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>55</v>
       </c>
-      <c r="Z27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA27" t="b">
-        <v>0</v>
-      </c>
       <c r="AB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4056,43 +4178,47 @@
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28">
         <v>150</v>
-      </c>
-      <c r="M28" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28">
-        <v>200</v>
       </c>
       <c r="O28" t="s">
         <v>55</v>
       </c>
-      <c r="Z28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA28" t="b">
-        <v>0</v>
+      <c r="P28">
+        <v>200</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>55</v>
       </c>
       <c r="AB28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
         <v>13.17</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4118,43 +4244,47 @@
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29">
         <v>150</v>
-      </c>
-      <c r="M29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29">
-        <v>200</v>
       </c>
       <c r="O29" t="s">
         <v>55</v>
       </c>
-      <c r="Z29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="b">
-        <v>0</v>
+      <c r="P29">
+        <v>200</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>55</v>
       </c>
       <c r="AB29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -4182,47 +4312,51 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="b">
+      <c r="J30" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="AB30" t="b">
         <v>0</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
         <v>124</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>600</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AG30" t="s">
         <v>65</v>
       </c>
-      <c r="AF30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="s">
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
         <v>125</v>
       </c>
-      <c r="AK30">
+      <c r="AM30">
         <v>1000</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AN30" t="s">
         <v>65</v>
       </c>
-      <c r="AM30" t="b">
-        <v>0</v>
-      </c>
       <c r="AO30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -4250,35 +4384,39 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="b">
+      <c r="J31" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="AB31" t="b">
         <v>0</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AC31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
         <v>125</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>1500</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AG31" t="s">
         <v>65</v>
       </c>
-      <c r="AF31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4306,50 +4444,54 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
+      <c r="J32" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>75</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>55</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>101</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>10</v>
       </c>
-      <c r="R32" t="s">
+      <c r="T32" t="s">
         <v>53</v>
       </c>
-      <c r="S32" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="Z32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA32" t="b">
-        <v>0</v>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
       </c>
       <c r="AB32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4377,50 +4519,54 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
+      <c r="J33" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>75</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>55</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>52</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>10</v>
       </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>53</v>
       </c>
-      <c r="S33" t="b">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="Z33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA33" t="b">
-        <v>0</v>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
       </c>
       <c r="AB33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
         <v>15.7</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -4446,61 +4592,65 @@
         <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J34" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
       </c>
       <c r="AB34" t="b">
         <v>0</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="s">
         <v>138</v>
       </c>
-      <c r="AD34">
+      <c r="AF34">
         <v>0.4</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AG34" t="s">
         <v>139</v>
       </c>
-      <c r="AF34" t="b">
-        <v>0</v>
-      </c>
       <c r="AH34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK34">
         <v>0.5</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AL34" t="s">
         <v>52</v>
       </c>
-      <c r="AK34">
+      <c r="AM34">
         <v>10</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AN34" t="s">
         <v>53</v>
       </c>
-      <c r="AM34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
       <c r="AO34" t="b">
         <v>1</v>
       </c>
       <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -4526,61 +4676,65 @@
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
       </c>
       <c r="AB35" t="b">
         <v>0</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="s">
         <v>138</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>0.4</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AG35" t="s">
         <v>139</v>
       </c>
-      <c r="AF35" t="b">
-        <v>0</v>
-      </c>
       <c r="AH35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK35">
         <v>0.5</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AL35" t="s">
         <v>52</v>
       </c>
-      <c r="AK35">
+      <c r="AM35">
         <v>10</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AN35" t="s">
         <v>53</v>
       </c>
-      <c r="AM35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
       <c r="AO35" t="b">
         <v>1</v>
       </c>
       <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -4606,43 +4760,47 @@
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
       </c>
       <c r="AB36" t="b">
         <v>0</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="s">
         <v>52</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>10</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AG36" t="s">
         <v>53</v>
       </c>
-      <c r="AF36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AO36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP36">
+      <c r="AH36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4670,47 +4828,51 @@
       <c r="I37" t="b">
         <v>0</v>
       </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="b">
-        <v>1</v>
+      <c r="J37" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
       </c>
       <c r="AB37" t="b">
         <v>0</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="s">
         <v>144</v>
       </c>
-      <c r="AD37">
+      <c r="AF37">
         <v>20</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AG37" t="s">
         <v>65</v>
       </c>
-      <c r="AF37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="s">
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="s">
         <v>62</v>
       </c>
-      <c r="AK37">
+      <c r="AM37">
         <v>60</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AN37" t="s">
         <v>65</v>
       </c>
-      <c r="AM37" t="b">
-        <v>0</v>
-      </c>
       <c r="AO37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -4738,47 +4900,51 @@
       <c r="I38" t="b">
         <v>0</v>
       </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="b">
-        <v>1</v>
+      <c r="J38" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
       </c>
       <c r="AB38" t="b">
         <v>0</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="s">
         <v>144</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>40</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AG38" t="s">
         <v>65</v>
       </c>
-      <c r="AF38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="s">
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
         <v>62</v>
       </c>
-      <c r="AK38">
+      <c r="AM38">
         <v>60</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AN38" t="s">
         <v>65</v>
       </c>
-      <c r="AM38" t="b">
-        <v>0</v>
-      </c>
       <c r="AO38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -4806,47 +4972,51 @@
       <c r="I39" t="b">
         <v>0</v>
       </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="b">
-        <v>1</v>
+      <c r="J39" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
       </c>
       <c r="AB39" t="b">
         <v>0</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="s">
         <v>144</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>40</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AG39" t="s">
         <v>65</v>
       </c>
-      <c r="AF39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="s">
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
         <v>62</v>
       </c>
-      <c r="AK39">
+      <c r="AM39">
         <v>75</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AN39" t="s">
         <v>65</v>
       </c>
-      <c r="AM39" t="b">
-        <v>0</v>
-      </c>
       <c r="AO39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
@@ -4874,50 +5044,54 @@
       <c r="I40" t="b">
         <v>0</v>
       </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="b">
-        <v>1</v>
+      <c r="J40" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
       </c>
       <c r="AB40" t="b">
         <v>0</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="s">
         <v>144</v>
       </c>
-      <c r="AD40">
+      <c r="AF40">
         <v>40</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AG40" t="s">
         <v>65</v>
       </c>
-      <c r="AF40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="s">
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
         <v>62</v>
       </c>
-      <c r="AK40">
+      <c r="AM40">
         <v>75</v>
       </c>
-      <c r="AL40" t="s">
+      <c r="AN40" t="s">
         <v>65</v>
       </c>
-      <c r="AM40" t="b">
-        <v>0</v>
-      </c>
       <c r="AO40" t="b">
         <v>0</v>
       </c>
-      <c r="AP40">
+      <c r="AQ40">
         <v>10.3</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -4945,50 +5119,54 @@
       <c r="I41" t="b">
         <v>0</v>
       </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="b">
-        <v>1</v>
+      <c r="J41" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
       </c>
       <c r="AB41" t="b">
         <v>0</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AC41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="s">
         <v>144</v>
       </c>
-      <c r="AD41">
+      <c r="AF41">
         <v>40</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AG41" t="s">
         <v>65</v>
       </c>
-      <c r="AF41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="s">
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
         <v>62</v>
       </c>
-      <c r="AK41">
+      <c r="AM41">
         <v>150</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AN41" t="s">
         <v>65</v>
       </c>
-      <c r="AM41" t="b">
-        <v>0</v>
-      </c>
       <c r="AO41" t="b">
         <v>0</v>
       </c>
-      <c r="AP41">
+      <c r="AQ41">
         <v>10.7</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -5016,50 +5194,54 @@
       <c r="I42" t="b">
         <v>0</v>
       </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="b">
-        <v>1</v>
+      <c r="J42" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
       </c>
       <c r="AB42" t="b">
         <v>0</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AC42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="s">
         <v>144</v>
       </c>
-      <c r="AD42">
+      <c r="AF42">
         <v>40</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AG42" t="s">
         <v>65</v>
       </c>
-      <c r="AF42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="s">
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="s">
         <v>62</v>
       </c>
-      <c r="AK42">
+      <c r="AM42">
         <v>75</v>
       </c>
-      <c r="AL42" t="s">
+      <c r="AN42" t="s">
         <v>65</v>
       </c>
-      <c r="AM42" t="b">
-        <v>0</v>
-      </c>
       <c r="AO42" t="b">
         <v>0</v>
       </c>
-      <c r="AP42">
+      <c r="AQ42">
         <v>4.7</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5085,46 +5267,50 @@
         <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43">
         <v>150</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>55</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>154</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>500</v>
       </c>
-      <c r="R43" t="s">
+      <c r="T43" t="s">
         <v>65</v>
       </c>
-      <c r="S43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA43" t="b">
+      <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="AB43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -5150,46 +5336,50 @@
         <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>150</v>
       </c>
-      <c r="M44" t="s">
+      <c r="O44" t="s">
         <v>55</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>154</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>500</v>
       </c>
-      <c r="R44" t="s">
+      <c r="T44" t="s">
         <v>65</v>
       </c>
-      <c r="S44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA44" t="b">
+      <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="AB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5215,46 +5405,50 @@
         <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45">
         <v>150</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
         <v>55</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>154</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <v>400</v>
       </c>
-      <c r="R45" t="s">
+      <c r="T45" t="s">
         <v>65</v>
       </c>
-      <c r="S45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA45" t="b">
+      <c r="U45" t="b">
         <v>0</v>
       </c>
       <c r="AB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -5282,47 +5476,51 @@
       <c r="I46" t="b">
         <v>0</v>
       </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="b">
-        <v>1</v>
+      <c r="J46" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Low</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
       </c>
       <c r="AB46" t="b">
         <v>0</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AC46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="s">
         <v>144</v>
       </c>
-      <c r="AD46">
+      <c r="AF46">
         <v>20</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AG46" t="s">
         <v>65</v>
       </c>
-      <c r="AF46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="s">
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="s">
         <v>62</v>
       </c>
-      <c r="AK46">
+      <c r="AM46">
         <v>75</v>
       </c>
-      <c r="AL46" t="s">
+      <c r="AN46" t="s">
         <v>65</v>
       </c>
-      <c r="AM46" t="b">
-        <v>0</v>
-      </c>
       <c r="AO46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -5350,53 +5548,58 @@
       <c r="I47" t="b">
         <v>0</v>
       </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="b">
-        <v>1</v>
+      <c r="J47" t="str">
+        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
       </c>
       <c r="AB47" t="b">
         <v>0</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AC47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
         <v>144</v>
       </c>
-      <c r="AD47">
+      <c r="AF47">
         <v>40</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AG47" t="s">
         <v>65</v>
       </c>
-      <c r="AF47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="s">
+      <c r="AH47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
         <v>62</v>
       </c>
-      <c r="AK47">
+      <c r="AM47">
         <v>150</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AN47" t="s">
         <v>65</v>
       </c>
-      <c r="AM47" t="b">
-        <v>0</v>
-      </c>
       <c r="AO47" t="b">
         <v>0</v>
       </c>
-      <c r="AP47">
+      <c r="AQ47">
         <v>4.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5405,15 +5608,16 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="4" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FAFF2FD2-D165-4FBF-BF0D-E27ADD6EF982}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{057AA408-3645-453D-8BAE-BBDD0D6EF23C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="690" uniqueCount="167">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="696" uniqueCount="170">
   <si>
     <t>Phase</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>Burden</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1517,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AQ47" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:AQ47" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AQ1048576" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:AQ1048576" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
@@ -1520,9 +1529,7 @@
     <tableColumn id="5" xr3:uid="{869510A2-1CE0-437C-9ED4-65B04D4A1360}" name="Randomized"/>
     <tableColumn id="10" xr3:uid="{03B678CC-1932-4A2C-AAB0-73B5893DD292}" name="Surgery"/>
     <tableColumn id="51" xr3:uid="{41084609-8915-4406-AFEA-4170D289E825}" name="Universal IV"/>
-    <tableColumn id="12" xr3:uid="{13578889-6BE7-4CFA-979E-2BB08302CFB7}" name="Burden" dataDxfId="0">
-      <calculatedColumnFormula>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="12" xr3:uid="{13578889-6BE7-4CFA-979E-2BB08302CFB7}" name="Burden" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{FA550D66-7A8A-4FDA-A4AD-2318054511FD}" name="Concomitant"/>
     <tableColumn id="20" xr3:uid="{74EFA571-B2A7-46A2-9E15-B8698BFB18EB}" name="Adjuvant"/>
     <tableColumn id="21" xr3:uid="{B9C7D220-7D77-4400-A952-69BE0E445DC4}" name="Adjuvant TEM"/>
@@ -2133,8 +2140,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2424,9 +2431,8 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J3" t="s">
+        <v>168</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -3604,9 +3610,8 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J19" t="s">
+        <v>168</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -4180,9 +4185,8 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="J28" t="s">
+        <v>167</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -4246,9 +4250,8 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-      <c r="J29" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="J29" t="s">
+        <v>168</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -4312,9 +4315,8 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J30" t="s">
+        <v>168</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -4384,9 +4386,8 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="J31" t="s">
+        <v>169</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{057AA408-3645-453D-8BAE-BBDD0D6EF23C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{309D8BCE-5128-42A5-B14C-08A41333CAC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="696" uniqueCount="170">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="698" uniqueCount="170">
   <si>
     <t>Phase</t>
   </si>
@@ -1518,7 +1518,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AQ1048576" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:AQ1048576" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+  <autoFilter ref="A1:AQ1048576" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="High"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
@@ -2141,10 +2147,10 @@
   <dimension ref="A1:AQ47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.75" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -2403,7 +2409,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3057,7 +3063,7 @@
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3235,9 +3241,8 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J14" t="s">
+        <v>169</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -3282,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3385,9 +3390,8 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J16" t="s">
+        <v>168</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -3432,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -4801,7 +4805,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -5017,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -5167,7 +5171,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{309D8BCE-5128-42A5-B14C-08A41333CAC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7807F286-5440-433B-B123-5492AA6CC685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Concomitant" sheetId="6" r:id="rId5"/>
     <sheet name="Concomitant Tem" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="698" uniqueCount="170">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="729" uniqueCount="171">
   <si>
     <t>Phase</t>
   </si>
@@ -546,6 +549,9 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>BurdenTwo</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,6 +1226,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1504,6 +1511,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Studies"/>
+      <sheetName val="Arms"/>
+      <sheetName val="Dropout"/>
+      <sheetName val="Neoadjuvant"/>
+      <sheetName val="Concomitant"/>
+      <sheetName val="Concomitant Tem"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5BE1F00-7C86-4C71-9EAE-ECCFACB9E11D}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
   <autoFilter ref="A1:C18" xr:uid="{D3BE7780-923D-4844-9487-54D20421F434}"/>
@@ -1517,15 +1547,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AQ1048576" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:AQ1048576" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="High"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="43">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2A8E3CB-1AFB-479A-A935-6E3A8A8C1E2A}" name="Table2" displayName="Table2" ref="A1:AR1048576" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:AR1048576" xr:uid="{337B527E-CC89-49CB-B8CF-29513C2E5B70}"/>
+  <tableColumns count="44">
     <tableColumn id="1" xr3:uid="{04959165-9B47-46FC-95B1-128303AC6772}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{749B59FF-4A21-40FD-8008-2136ADB4D3D2}" name="Arm"/>
     <tableColumn id="3" xr3:uid="{812D4910-70D1-4BB6-9392-9EE81E6B607E}" name="Enrollment"/>
@@ -1536,6 +1560,7 @@
     <tableColumn id="10" xr3:uid="{03B678CC-1932-4A2C-AAB0-73B5893DD292}" name="Surgery"/>
     <tableColumn id="51" xr3:uid="{41084609-8915-4406-AFEA-4170D289E825}" name="Universal IV"/>
     <tableColumn id="12" xr3:uid="{13578889-6BE7-4CFA-979E-2BB08302CFB7}" name="Burden" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F0F339F0-4E08-4DB3-8E47-281D3B66A356}" name="BurdenTwo"/>
     <tableColumn id="11" xr3:uid="{FA550D66-7A8A-4FDA-A4AD-2318054511FD}" name="Concomitant"/>
     <tableColumn id="20" xr3:uid="{74EFA571-B2A7-46A2-9E15-B8698BFB18EB}" name="Adjuvant"/>
     <tableColumn id="21" xr3:uid="{B9C7D220-7D77-4400-A952-69BE0E445DC4}" name="Adjuvant TEM"/>
@@ -2144,13 +2169,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AQ47"/>
+  <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="75.75" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
@@ -2159,42 +2184,44 @@
     <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="10" width="29.875" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="27.75" customWidth="1"/>
-    <col min="13" max="13" width="20.625" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="20.75" customWidth="1"/>
-    <col min="16" max="16" width="24.125" customWidth="1"/>
-    <col min="17" max="17" width="20.75" customWidth="1"/>
-    <col min="18" max="18" width="23.375" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="20.875" customWidth="1"/>
-    <col min="21" max="21" width="24.75" customWidth="1"/>
-    <col min="22" max="22" width="19.625" customWidth="1"/>
-    <col min="23" max="23" width="28.75" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="20.875" customWidth="1"/>
-    <col min="26" max="26" width="24.75" customWidth="1"/>
-    <col min="27" max="27" width="19.625" customWidth="1"/>
-    <col min="28" max="28" width="28.75" customWidth="1"/>
-    <col min="31" max="31" width="11.875" customWidth="1"/>
-    <col min="32" max="32" width="16.125" customWidth="1"/>
-    <col min="33" max="33" width="20.375" customWidth="1"/>
-    <col min="34" max="34" width="24.125" customWidth="1"/>
-    <col min="35" max="35" width="20.75" customWidth="1"/>
-    <col min="36" max="36" width="29.875" customWidth="1"/>
-    <col min="37" max="37" width="13.25" customWidth="1"/>
-    <col min="38" max="38" width="22.375" customWidth="1"/>
-    <col min="39" max="39" width="16.125" customWidth="1"/>
-    <col min="40" max="40" width="22.875" customWidth="1"/>
-    <col min="41" max="41" width="28.5" customWidth="1"/>
-    <col min="42" max="42" width="20.375" customWidth="1"/>
-    <col min="44" max="44" width="12.125" customWidth="1"/>
-    <col min="45" max="45" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="29.875" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="29.875" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="27.75" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="20.75" customWidth="1"/>
+    <col min="17" max="17" width="24.125" customWidth="1"/>
+    <col min="18" max="18" width="20.75" customWidth="1"/>
+    <col min="19" max="19" width="23.375" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="24.75" customWidth="1"/>
+    <col min="23" max="23" width="19.625" customWidth="1"/>
+    <col min="24" max="24" width="28.75" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="26" max="26" width="20.875" customWidth="1"/>
+    <col min="27" max="27" width="24.75" customWidth="1"/>
+    <col min="28" max="28" width="19.625" customWidth="1"/>
+    <col min="29" max="29" width="28.75" customWidth="1"/>
+    <col min="32" max="32" width="11.875" customWidth="1"/>
+    <col min="33" max="33" width="16.125" customWidth="1"/>
+    <col min="34" max="34" width="20.375" customWidth="1"/>
+    <col min="35" max="35" width="24.125" customWidth="1"/>
+    <col min="36" max="36" width="20.75" customWidth="1"/>
+    <col min="37" max="37" width="29.875" customWidth="1"/>
+    <col min="38" max="38" width="13.25" customWidth="1"/>
+    <col min="39" max="39" width="22.375" customWidth="1"/>
+    <col min="40" max="40" width="16.125" customWidth="1"/>
+    <col min="41" max="41" width="22.875" customWidth="1"/>
+    <col min="42" max="42" width="28.5" customWidth="1"/>
+    <col min="43" max="43" width="20.375" customWidth="1"/>
+    <col min="45" max="45" width="12.125" customWidth="1"/>
+    <col min="46" max="46" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>158</v>
       </c>
@@ -2226,106 +2253,109 @@
         <v>166</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2353,63 +2383,66 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>169</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>52</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>10</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>125</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2">
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2">
         <v>1.5</v>
       </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
       <c r="AC2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2">
         <v>16.64</v>
       </c>
     </row>
-    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2437,11 +2470,11 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>168</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -2449,26 +2482,29 @@
       <c r="M3" t="b">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>175</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" t="b">
-        <v>1</v>
-      </c>
       <c r="AC3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3">
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2496,17 +2532,19 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K4" s="11" t="b">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>169</v>
       </c>
       <c r="L4" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -2521,28 +2559,28 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="AB4" s="11"/>
       <c r="AC4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AG4" s="11">
         <v>30</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AH4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="11"/>
+      <c r="AI4" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="AJ4" s="11"/>
       <c r="AK4" s="11"/>
       <c r="AL4" s="11"/>
@@ -2550,11 +2588,12 @@
       <c r="AN4" s="11"/>
       <c r="AO4" s="11"/>
       <c r="AP4" s="11"/>
-      <c r="AQ4" s="11">
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2582,54 +2621,57 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K5" s="11" t="b">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>169</v>
       </c>
       <c r="L5" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="AB5" s="11" t="b">
+      <c r="M5" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AC5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>20</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AH5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AH5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AI5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>69</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>110</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>55</v>
       </c>
-      <c r="AO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5">
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2657,54 +2699,57 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K6" s="11" t="b">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>169</v>
       </c>
       <c r="L6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="AB6" s="11" t="b">
+      <c r="M6" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AC6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
         <v>69</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>110</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>55</v>
       </c>
-      <c r="AH6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AI6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
         <v>71</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>20</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>65</v>
       </c>
-      <c r="AO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2732,45 +2777,49 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K7" s="11" t="b">
-        <v>0</v>
+      <c r="K7" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L7" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="AB7" t="b">
+      <c r="M7" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AC7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
         <v>74</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>500</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>65</v>
       </c>
-      <c r="AH7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
         <v>6.54</v>
       </c>
     </row>
-    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2798,45 +2847,48 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K8" s="11" t="b">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>167</v>
       </c>
       <c r="L8" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="AB8" t="b">
+      <c r="M8" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AC8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
         <v>74</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2000</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>65</v>
       </c>
-      <c r="AH8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
         <v>9.91</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2864,12 +2916,13 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
+      <c r="K9" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -2877,41 +2930,44 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>175</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>55</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>74</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2000</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>65</v>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="b">
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>1</v>
       </c>
       <c r="AC9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR9">
         <v>26.3</v>
       </c>
     </row>
-    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2939,12 +2995,13 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
+      <c r="K10" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -2952,26 +3009,29 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>175</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>55</v>
       </c>
-      <c r="AB10" t="b">
-        <v>1</v>
-      </c>
       <c r="AC10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR10">
         <v>26.3</v>
       </c>
     </row>
-    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2999,12 +3059,12 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K11" s="12" t="b">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>169</v>
       </c>
       <c r="L11" s="12" t="b">
         <v>1</v>
@@ -3012,44 +3072,46 @@
       <c r="M11" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12">
         <v>150</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="S11" s="12">
+      <c r="T11" s="12">
         <v>500</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="U11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V11" s="12">
-        <v>1</v>
-      </c>
-      <c r="W11" s="12"/>
+      <c r="V11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="12" t="b">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="12"/>
       <c r="AC11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
@@ -3062,8 +3124,9 @@
       <c r="AO11" s="12"/>
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
-    </row>
-    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AR11" s="12"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3091,12 +3154,12 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>169</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -3104,41 +3167,44 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>150</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>55</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>74</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>20000</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>65</v>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="b">
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>1</v>
       </c>
       <c r="AC12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
-      <c r="AQ12">
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12">
         <v>19.7</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3166,54 +3232,57 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>168</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="AB13" t="b">
+      <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="AC13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="s">
         <v>86</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>60</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>65</v>
       </c>
-      <c r="AH13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
+      <c r="AI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="s">
         <v>52</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>10</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>53</v>
       </c>
-      <c r="AO13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AP13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3241,53 +3310,56 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>168</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="AB14" t="b">
+      <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="AC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="s">
         <v>86</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>80</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>65</v>
       </c>
-      <c r="AH14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
+      <c r="AI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>52</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>10</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>53</v>
       </c>
-      <c r="AO14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AP14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3315,54 +3387,57 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
+      <c r="K15" t="s">
+        <v>168</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="AB15" t="b">
+      <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="AC15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="s">
         <v>86</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>60</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>65</v>
       </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
+      <c r="AI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>52</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>10</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>53</v>
       </c>
-      <c r="AO15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ15">
+      <c r="AP15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15">
         <v>10.8</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3390,11 +3465,11 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
+      <c r="K16" t="s">
+        <v>169</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -3402,41 +3477,44 @@
       <c r="M16" t="b">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>150</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>55</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>200</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>55</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>96</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>100</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>65</v>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="b">
-        <v>1</v>
+      <c r="V16" t="b">
+        <v>0</v>
       </c>
       <c r="AC16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3464,12 +3542,12 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K17" t="b">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>169</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -3477,41 +3555,44 @@
       <c r="M17" t="b">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>150</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>55</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>200</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>55</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>96</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>100</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>65</v>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="b">
-        <v>1</v>
+      <c r="V17" t="b">
+        <v>0</v>
       </c>
       <c r="AC17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3539,12 +3620,12 @@
       <c r="I18" t="b">
         <v>0</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K18" t="b">
-        <v>1</v>
+      <c r="K18" t="s">
+        <v>169</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -3552,41 +3633,44 @@
       <c r="M18" t="b">
         <v>1</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>150</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>55</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>200</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>55</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>96</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>150</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>65</v>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="b">
-        <v>1</v>
+      <c r="V18" t="b">
+        <v>0</v>
       </c>
       <c r="AC18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3614,11 +3698,11 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K19" t="b">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>169</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -3626,44 +3710,47 @@
       <c r="M19" t="b">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>150</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>55</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>200</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>55</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>96</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>150</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>65</v>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="b">
-        <v>1</v>
+      <c r="V19" t="b">
+        <v>0</v>
       </c>
       <c r="AC19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
-      <c r="AQ19">
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
         <v>15.6</v>
       </c>
     </row>
-    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3691,12 +3778,12 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K20" t="b">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>169</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -3704,44 +3791,47 @@
       <c r="M20" t="b">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>150</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>55</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>200</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>55</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>101</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>150</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>65</v>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="b">
-        <v>1</v>
+      <c r="V20" t="b">
+        <v>0</v>
       </c>
       <c r="AC20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
-      <c r="AQ20">
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20">
         <v>19.3</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -3769,12 +3859,13 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K21" t="b">
-        <v>1</v>
+      <c r="K21" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -3782,17 +3873,20 @@
       <c r="M21" t="b">
         <v>1</v>
       </c>
-      <c r="AB21" t="b">
+      <c r="N21" t="b">
         <v>1</v>
       </c>
       <c r="AC21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3820,12 +3914,13 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
+      <c r="K22" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -3833,17 +3928,20 @@
       <c r="M22" t="b">
         <v>1</v>
       </c>
-      <c r="AB22" t="b">
+      <c r="N22" t="b">
         <v>1</v>
       </c>
       <c r="AC22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3871,12 +3969,13 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K23" t="b">
-        <v>1</v>
+      <c r="K23" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -3884,20 +3983,23 @@
       <c r="M23" t="b">
         <v>1</v>
       </c>
-      <c r="AB23" t="b">
+      <c r="N23" t="b">
         <v>1</v>
       </c>
       <c r="AC23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
-      <c r="AQ23">
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>15.6</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -3925,57 +4027,60 @@
       <c r="I24" t="b">
         <v>1</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>168</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="AB24" t="b">
+      <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="AC24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="s">
         <v>52</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>10</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>53</v>
       </c>
-      <c r="AH24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AL24" t="s">
+      <c r="AI24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="s">
         <v>62</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>50</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AO24" t="s">
         <v>55</v>
       </c>
-      <c r="AO24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
+      <c r="AP24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <v>12.6</v>
       </c>
     </row>
-    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -4003,57 +4108,60 @@
       <c r="I25" t="b">
         <v>1</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>168</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="AB25" t="b">
+      <c r="M25" t="b">
         <v>0</v>
       </c>
       <c r="AC25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
         <v>52</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>10</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>53</v>
       </c>
-      <c r="AH25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AI25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
         <v>111</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>50</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>55</v>
       </c>
-      <c r="AO25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
+      <c r="AP25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -4081,12 +4189,12 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K26" t="b">
-        <v>1</v>
+      <c r="K26" t="s">
+        <v>169</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -4094,17 +4202,20 @@
       <c r="M26" t="b">
         <v>1</v>
       </c>
-      <c r="AB26" t="b">
+      <c r="N26" t="b">
         <v>1</v>
       </c>
       <c r="AC26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -4132,12 +4243,12 @@
       <c r="I27" t="b">
         <v>0</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K27" t="b">
-        <v>1</v>
+      <c r="K27" t="s">
+        <v>168</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -4145,23 +4256,26 @@
       <c r="M27" t="b">
         <v>1</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27">
         <v>75</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>55</v>
       </c>
-      <c r="AB27" t="b">
-        <v>1</v>
-      </c>
       <c r="AC27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4189,11 +4303,11 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="K28" t="b">
-        <v>1</v>
+      <c r="K28" t="s">
+        <v>167</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -4201,32 +4315,35 @@
       <c r="M28" t="b">
         <v>1</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28">
         <v>150</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>55</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>200</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>55</v>
       </c>
-      <c r="AB28" t="b">
-        <v>1</v>
-      </c>
       <c r="AC28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
-      <c r="AQ28">
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28">
         <v>13.17</v>
       </c>
     </row>
-    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4254,11 +4371,11 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K29" t="b">
-        <v>1</v>
+      <c r="K29" t="s">
+        <v>168</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -4266,32 +4383,35 @@
       <c r="M29" t="b">
         <v>1</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29">
         <v>150</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>55</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>200</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>55</v>
       </c>
-      <c r="AB29" t="b">
-        <v>1</v>
-      </c>
       <c r="AC29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
-      <c r="AQ29">
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29">
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -4319,16 +4439,16 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
+      <c r="K30" t="s">
+        <v>169</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="AB30" t="b">
+      <c r="M30" t="b">
         <v>0</v>
       </c>
       <c r="AC30" t="b">
@@ -4337,32 +4457,35 @@
       <c r="AD30" t="b">
         <v>0</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="s">
         <v>124</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>600</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AH30" t="s">
         <v>65</v>
       </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="s">
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="s">
         <v>125</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1000</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AO30" t="s">
         <v>65</v>
       </c>
-      <c r="AO30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AP30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -4390,16 +4513,16 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="K31" t="b">
-        <v>0</v>
+      <c r="K31" t="s">
+        <v>169</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="AB31" t="b">
+      <c r="M31" t="b">
         <v>0</v>
       </c>
       <c r="AC31" t="b">
@@ -4408,20 +4531,23 @@
       <c r="AD31" t="b">
         <v>0</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="s">
         <v>125</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1500</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AH31" t="s">
         <v>65</v>
       </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AI31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4449,12 +4575,12 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K32" t="b">
-        <v>1</v>
+      <c r="K32" t="s">
+        <v>167</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -4462,41 +4588,44 @@
       <c r="M32" t="b">
         <v>1</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>75</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>55</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>101</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>10</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>53</v>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="b">
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32">
         <v>1</v>
       </c>
       <c r="AC32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
-      <c r="AQ32">
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4524,12 +4653,12 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K33" t="b">
-        <v>1</v>
+      <c r="K33" t="s">
+        <v>167</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -4537,41 +4666,44 @@
       <c r="M33" t="b">
         <v>1</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>75</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>55</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>52</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>10</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>53</v>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="b">
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33">
         <v>1</v>
       </c>
       <c r="AC33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
-      <c r="AQ33">
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR33">
         <v>15.7</v>
       </c>
     </row>
-    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -4599,63 +4731,66 @@
       <c r="I34" t="b">
         <v>1</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K34" t="b">
-        <v>0</v>
+      <c r="K34" t="s">
+        <v>167</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="AB34" t="b">
+      <c r="M34" t="b">
         <v>0</v>
       </c>
       <c r="AC34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="s">
         <v>138</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.4</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>139</v>
       </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK34">
+      <c r="AI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL34">
         <v>0.5</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AM34" t="s">
         <v>52</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>10</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AO34" t="s">
         <v>53</v>
       </c>
-      <c r="AO34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP34">
+      <c r="AP34" t="b">
         <v>1</v>
       </c>
       <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -4683,63 +4818,66 @@
       <c r="I35" t="b">
         <v>1</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K35" t="b">
-        <v>0</v>
+      <c r="K35" t="s">
+        <v>167</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="AB35" t="b">
+      <c r="M35" t="b">
         <v>0</v>
       </c>
       <c r="AC35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="s">
         <v>138</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.4</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>139</v>
       </c>
-      <c r="AH35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK35">
+      <c r="AI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL35">
         <v>0.5</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
         <v>52</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>10</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AO35" t="s">
         <v>53</v>
       </c>
-      <c r="AO35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP35">
+      <c r="AP35" t="b">
         <v>1</v>
       </c>
       <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -4767,45 +4905,49 @@
       <c r="I36" t="b">
         <v>1</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K36" t="b">
-        <v>0</v>
+      <c r="K36" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="AB36" t="b">
+      <c r="M36" t="b">
         <v>0</v>
       </c>
       <c r="AC36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="s">
         <v>52</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>10</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AH36" t="s">
         <v>53</v>
       </c>
-      <c r="AH36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AQ36">
+      <c r="AI36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4833,51 +4975,55 @@
       <c r="I37" t="b">
         <v>0</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
+      <c r="K37" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="AB37" t="b">
+      <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="AC37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="s">
         <v>144</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>20</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
         <v>65</v>
       </c>
-      <c r="AH37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="s">
+      <c r="AI37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="s">
         <v>62</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>60</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AO37" t="s">
         <v>65</v>
       </c>
-      <c r="AO37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AP37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -4905,51 +5051,55 @@
       <c r="I38" t="b">
         <v>0</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K38" t="b">
-        <v>0</v>
+      <c r="K38" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="AB38" t="b">
+      <c r="M38" t="b">
         <v>0</v>
       </c>
       <c r="AC38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="s">
         <v>144</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>40</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AH38" t="s">
         <v>65</v>
       </c>
-      <c r="AH38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="s">
+      <c r="AI38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="s">
         <v>62</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>60</v>
       </c>
-      <c r="AN38" t="s">
+      <c r="AO38" t="s">
         <v>65</v>
       </c>
-      <c r="AO38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AP38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -4977,51 +5127,54 @@
       <c r="I39" t="b">
         <v>0</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K39" t="b">
-        <v>0</v>
+      <c r="K39" t="s">
+        <v>168</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="AB39" t="b">
+      <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="AC39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="s">
         <v>144</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>40</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AH39" t="s">
         <v>65</v>
       </c>
-      <c r="AH39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="s">
+      <c r="AI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="s">
         <v>62</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>75</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AO39" t="s">
         <v>65</v>
       </c>
-      <c r="AO39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AP39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
@@ -5049,54 +5202,58 @@
       <c r="I40" t="b">
         <v>0</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K40" t="b">
-        <v>0</v>
+      <c r="K40" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="AB40" t="b">
+      <c r="M40" t="b">
         <v>0</v>
       </c>
       <c r="AC40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="s">
         <v>144</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>40</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AH40" t="s">
         <v>65</v>
       </c>
-      <c r="AH40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="s">
+      <c r="AI40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="s">
         <v>62</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>75</v>
       </c>
-      <c r="AN40" t="s">
+      <c r="AO40" t="s">
         <v>65</v>
       </c>
-      <c r="AO40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
+      <c r="AP40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR40">
         <v>10.3</v>
       </c>
     </row>
-    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -5124,54 +5281,58 @@
       <c r="I41" t="b">
         <v>0</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K41" t="b">
-        <v>0</v>
+      <c r="K41" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="AB41" t="b">
+      <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="AC41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="s">
         <v>144</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>40</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AH41" t="s">
         <v>65</v>
       </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="s">
+      <c r="AI41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="s">
         <v>62</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <v>150</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AO41" t="s">
         <v>65</v>
       </c>
-      <c r="AO41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
+      <c r="AP41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR41">
         <v>10.7</v>
       </c>
     </row>
-    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -5199,54 +5360,58 @@
       <c r="I42" t="b">
         <v>0</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K42" t="b">
-        <v>0</v>
+      <c r="K42" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
-      <c r="AB42" t="b">
+      <c r="M42" t="b">
         <v>0</v>
       </c>
       <c r="AC42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="s">
         <v>144</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>40</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
         <v>65</v>
       </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="s">
+      <c r="AI42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="s">
         <v>62</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <v>75</v>
       </c>
-      <c r="AN42" t="s">
+      <c r="AO42" t="s">
         <v>65</v>
       </c>
-      <c r="AO42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
+      <c r="AP42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42">
         <v>4.7</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5274,12 +5439,13 @@
       <c r="I43" t="b">
         <v>0</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K43" t="b">
-        <v>1</v>
+      <c r="K43" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -5287,35 +5453,38 @@
       <c r="M43" t="b">
         <v>1</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43">
         <v>150</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>55</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>154</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>500</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>65</v>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="b">
-        <v>1</v>
+      <c r="V43" t="b">
+        <v>0</v>
       </c>
       <c r="AC43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -5343,12 +5512,13 @@
       <c r="I44" t="b">
         <v>0</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K44" t="b">
-        <v>1</v>
+      <c r="K44" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -5356,35 +5526,38 @@
       <c r="M44" t="b">
         <v>1</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44">
         <v>150</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>55</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>154</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>500</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>65</v>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="b">
-        <v>1</v>
+      <c r="V44" t="b">
+        <v>0</v>
       </c>
       <c r="AC44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5412,12 +5585,13 @@
       <c r="I45" t="b">
         <v>0</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K45" t="b">
-        <v>1</v>
+      <c r="K45" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -5425,35 +5599,38 @@
       <c r="M45" t="b">
         <v>1</v>
       </c>
-      <c r="N45">
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45">
         <v>150</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>55</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>154</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>400</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>65</v>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="b">
-        <v>1</v>
+      <c r="V45" t="b">
+        <v>0</v>
       </c>
       <c r="AC45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -5481,51 +5658,54 @@
       <c r="I46" t="b">
         <v>0</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K46" t="b">
-        <v>0</v>
+      <c r="K46" t="s">
+        <v>168</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
-      <c r="AB46" t="b">
+      <c r="M46" t="b">
         <v>0</v>
       </c>
       <c r="AC46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="s">
         <v>144</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>20</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AH46" t="s">
         <v>65</v>
       </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="s">
+      <c r="AI46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="s">
         <v>62</v>
       </c>
-      <c r="AM46">
+      <c r="AN46">
         <v>75</v>
       </c>
-      <c r="AN46" t="s">
+      <c r="AO46" t="s">
         <v>65</v>
       </c>
-      <c r="AO46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AP46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -5553,50 +5733,54 @@
       <c r="I47" t="b">
         <v>0</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" s="25" t="str">
         <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K47" t="b">
-        <v>0</v>
+      <c r="K47" t="str">
+        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
-      <c r="AB47" t="b">
+      <c r="M47" t="b">
         <v>0</v>
       </c>
       <c r="AC47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="s">
         <v>144</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>40</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" t="s">
         <v>65</v>
       </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="s">
+      <c r="AI47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="s">
         <v>62</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <v>150</v>
       </c>
-      <c r="AN47" t="s">
+      <c r="AO47" t="s">
         <v>65</v>
       </c>
-      <c r="AO47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
+      <c r="AP47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR47">
         <v>4.7</v>
       </c>
     </row>

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\GBM-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7807F286-5440-433B-B123-5492AA6CC685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4923BEC5-A01E-487F-8EA7-A2A117D4EBED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="729" uniqueCount="171">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="988" uniqueCount="187">
   <si>
     <t>Phase</t>
   </si>
@@ -552,6 +552,54 @@
   </si>
   <si>
     <t>BurdenTwo</t>
+  </si>
+  <si>
+    <t>NCT00967330</t>
+  </si>
+  <si>
+    <t>NCT00731731</t>
+  </si>
+  <si>
+    <t>NCT00085254</t>
+  </si>
+  <si>
+    <t>NCT00689221</t>
+  </si>
+  <si>
+    <t>NCT00869401</t>
+  </si>
+  <si>
+    <t>NCT00305864</t>
+  </si>
+  <si>
+    <t>NCT01402063</t>
+  </si>
+  <si>
+    <t>NCT00686725</t>
+  </si>
+  <si>
+    <t>NCT00884741</t>
+  </si>
+  <si>
+    <t>NCT00777153</t>
+  </si>
+  <si>
+    <t>NCT00093964</t>
+  </si>
+  <si>
+    <t>NCT01349660</t>
+  </si>
+  <si>
+    <t>NCT00613028</t>
+  </si>
+  <si>
+    <t>NCT00154375</t>
+  </si>
+  <si>
+    <t>NCT01814813</t>
+  </si>
+  <si>
+    <t>NCT01026493</t>
   </si>
 </sst>
 </file>
@@ -1275,9 +1323,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -1475,6 +1520,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1521,6 +1569,7 @@
       <sheetName val="Neoadjuvant"/>
       <sheetName val="Concomitant"/>
       <sheetName val="Concomitant Tem"/>
+      <sheetName val="Burden Rank"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1529,6 +1578,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1559,7 +1609,7 @@
     <tableColumn id="5" xr3:uid="{869510A2-1CE0-437C-9ED4-65B04D4A1360}" name="Randomized"/>
     <tableColumn id="10" xr3:uid="{03B678CC-1932-4A2C-AAB0-73B5893DD292}" name="Surgery"/>
     <tableColumn id="51" xr3:uid="{41084609-8915-4406-AFEA-4170D289E825}" name="Universal IV"/>
-    <tableColumn id="12" xr3:uid="{13578889-6BE7-4CFA-979E-2BB08302CFB7}" name="Burden" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{13578889-6BE7-4CFA-979E-2BB08302CFB7}" name="Burden" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{F0F339F0-4E08-4DB3-8E47-281D3B66A356}" name="BurdenTwo"/>
     <tableColumn id="11" xr3:uid="{FA550D66-7A8A-4FDA-A4AD-2318054511FD}" name="Concomitant"/>
     <tableColumn id="20" xr3:uid="{74EFA571-B2A7-46A2-9E15-B8698BFB18EB}" name="Adjuvant"/>
@@ -1600,7 +1650,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5575AAA7-D95E-4197-9C82-F09ADC5AE257}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5575AAA7-D95E-4197-9C82-F09ADC5AE257}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:D166" xr:uid="{9117CEBF-E6D3-44F7-9FE3-CA1EB339F466}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{74BA0FDB-5710-4882-8060-FAB71C74C8A1}" name="NCT"/>
@@ -1613,21 +1663,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B3D4233-F20E-48BF-9756-1CD7CC13A260}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B3D4233-F20E-48BF-9756-1CD7CC13A260}" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:E2" xr:uid="{C91D0DA2-D727-4E0F-8EC4-17B25C4E8387}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E4577221-1973-4BCF-BAF7-1AB70117714D}" name="NCT"/>
     <tableColumn id="2" xr3:uid="{EA872DFA-99BE-4320-90D2-4CF33088C1B5}" name="Arm"/>
-    <tableColumn id="3" xr3:uid="{30298370-E7DF-4944-A120-B51B0265395A}" name="Neo Drug" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7E187766-C32E-4BD3-80B1-4B9D8AA592BE}" name="Neo Drug Dosage" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{54CEE142-B286-436E-BD32-02E0329ABA44}" name="Neo Drug Dosage Unit" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{30298370-E7DF-4944-A120-B51B0265395A}" name="Neo Drug" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7E187766-C32E-4BD3-80B1-4B9D8AA592BE}" name="Neo Drug Dosage" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{54CEE142-B286-436E-BD32-02E0329ABA44}" name="Neo Drug Dosage Unit" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB44517B-C1A6-46E9-9D24-24F7E214F6B7}" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB44517B-C1A6-46E9-9D24-24F7E214F6B7}" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:G17" xr:uid="{B1746B79-9F7F-404B-A6E8-83AEB985AB71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EE6D7B2A-E249-435B-A896-05A7E74A801F}" name="NCT"/>
@@ -1643,7 +1693,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15337EB3-855F-4F50-B6E4-CECAA2CCDEF0}" name="Table6" displayName="Table6" ref="A1:E23" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{15337EB3-855F-4F50-B6E4-CECAA2CCDEF0}" name="Table6" displayName="Table6" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="A1:E23" xr:uid="{DB024295-AB18-4A25-866D-45881406AE0C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D7325FB9-74D1-4609-855A-27A9CEC4B977}" name="NCT"/>
@@ -1955,12 +2005,13 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
   </cols>
@@ -1984,8 +2035,8 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -1995,8 +2046,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>172</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>152</v>
@@ -2006,8 +2057,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>173</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>80</v>
@@ -2017,8 +2068,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>174</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>76</v>
@@ -2028,8 +2079,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>175</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>94</v>
@@ -2039,8 +2090,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>176</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>102</v>
@@ -2050,8 +2101,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>177</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>112</v>
@@ -2061,8 +2112,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>178</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>116</v>
@@ -2072,8 +2123,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>179</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>130</v>
@@ -2083,8 +2134,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>180</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>63</v>
@@ -2094,8 +2145,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>181</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>72</v>
@@ -2105,8 +2156,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>182</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>83</v>
@@ -2116,8 +2167,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>183</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>108</v>
@@ -2127,8 +2178,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>184</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>121</v>
@@ -2138,8 +2189,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>185</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>136</v>
@@ -2149,8 +2200,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>186</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>142</v>
@@ -2171,12 +2222,13 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="75.75" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -2356,8 +2408,8 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -2384,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K2" t="s">
@@ -2443,8 +2495,8 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -2470,8 +2522,9 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>168</v>
+      <c r="J3" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K3" t="s">
         <v>168</v>
@@ -2505,8 +2558,8 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
+      <c r="A4" t="s">
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -2533,8 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K4" t="s">
         <v>169</v>
@@ -2594,8 +2647,8 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
+      <c r="A5" t="s">
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -2622,8 +2675,8 @@
         <v>0</v>
       </c>
       <c r="J5" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K5" t="s">
         <v>169</v>
@@ -2672,8 +2725,8 @@
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
+      <c r="A6" t="s">
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -2700,8 +2753,8 @@
         <v>0</v>
       </c>
       <c r="J6" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K6" t="s">
         <v>169</v>
@@ -2750,8 +2803,8 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11</v>
+      <c r="A7" t="s">
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -2778,8 +2831,8 @@
         <v>1</v>
       </c>
       <c r="J7" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K7" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -2820,8 +2873,8 @@
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>11</v>
+      <c r="A8" t="s">
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -2848,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
       <c r="K8" t="s">
@@ -2889,8 +2942,8 @@
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
+      <c r="A9" t="s">
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -2917,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K9" t="str">
@@ -2968,8 +3021,8 @@
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
+      <c r="A10" t="s">
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -2996,8 +3049,8 @@
         <v>0</v>
       </c>
       <c r="J10" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K10" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -3032,8 +3085,8 @@
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
+      <c r="A11" t="s">
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
@@ -3060,8 +3113,8 @@
         <v>1</v>
       </c>
       <c r="J11" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Low</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K11" t="s">
         <v>169</v>
@@ -3127,8 +3180,8 @@
       <c r="AR11" s="12"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -3155,8 +3208,8 @@
         <v>1</v>
       </c>
       <c r="J12" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Low</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K12" t="s">
         <v>169</v>
@@ -3205,8 +3258,8 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>182</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -3233,8 +3286,8 @@
         <v>1</v>
       </c>
       <c r="J13" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K13" t="s">
         <v>168</v>
@@ -3283,8 +3336,8 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>92</v>
@@ -3310,8 +3363,9 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>169</v>
+      <c r="J14" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K14" t="s">
         <v>168</v>
@@ -3360,8 +3414,8 @@
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
+      <c r="A15" t="s">
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -3388,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
       <c r="K15" t="s">
@@ -3438,8 +3492,8 @@
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5</v>
+      <c r="A16" t="s">
+        <v>175</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
@@ -3465,8 +3519,9 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>168</v>
+      <c r="J16" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K16" t="s">
         <v>169</v>
@@ -3515,8 +3570,8 @@
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
+      <c r="A17" t="s">
+        <v>175</v>
       </c>
       <c r="B17" t="s">
         <v>97</v>
@@ -3543,8 +3598,8 @@
         <v>0</v>
       </c>
       <c r="J17" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Low</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K17" t="s">
         <v>169</v>
@@ -3593,8 +3648,8 @@
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
+      <c r="A18" t="s">
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>98</v>
@@ -3621,8 +3676,8 @@
         <v>0</v>
       </c>
       <c r="J18" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Low</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K18" t="s">
         <v>169</v>
@@ -3671,8 +3726,8 @@
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
+      <c r="A19" t="s">
+        <v>175</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -3698,8 +3753,9 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>168</v>
+      <c r="J19" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K19" t="s">
         <v>169</v>
@@ -3751,8 +3807,8 @@
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
+      <c r="A20" t="s">
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
@@ -3779,8 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J20" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K20" t="s">
         <v>169</v>
@@ -3832,8 +3888,8 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>104</v>
@@ -3860,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K21" t="str">
@@ -3887,8 +3943,8 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
+      <c r="A22" t="s">
+        <v>176</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
@@ -3915,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K22" t="str">
@@ -3942,8 +3998,8 @@
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
+      <c r="A23" t="s">
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>107</v>
@@ -3970,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K23" t="str">
@@ -4000,8 +4056,8 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>13</v>
+      <c r="A24" t="s">
+        <v>183</v>
       </c>
       <c r="B24" t="s">
         <v>109</v>
@@ -4028,8 +4084,8 @@
         <v>1</v>
       </c>
       <c r="J24" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K24" t="s">
         <v>168</v>
@@ -4081,8 +4137,8 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>13</v>
+      <c r="A25" t="s">
+        <v>183</v>
       </c>
       <c r="B25" t="s">
         <v>110</v>
@@ -4109,8 +4165,8 @@
         <v>1</v>
       </c>
       <c r="J25" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Low</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
       </c>
       <c r="K25" t="s">
         <v>168</v>
@@ -4162,8 +4218,8 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
+      <c r="A26" t="s">
+        <v>177</v>
       </c>
       <c r="B26" t="s">
         <v>113</v>
@@ -4190,8 +4246,8 @@
         <v>1</v>
       </c>
       <c r="J26" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K26" t="s">
         <v>169</v>
@@ -4216,8 +4272,8 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>7</v>
+      <c r="A27" t="s">
+        <v>177</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
@@ -4244,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K27" t="s">
@@ -4276,8 +4332,8 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>8</v>
+      <c r="A28" t="s">
+        <v>178</v>
       </c>
       <c r="B28" t="s">
         <v>117</v>
@@ -4303,8 +4359,9 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>167</v>
+      <c r="J28" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K28" t="s">
         <v>167</v>
@@ -4344,8 +4401,8 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>8</v>
+      <c r="A29" t="s">
+        <v>178</v>
       </c>
       <c r="B29" t="s">
         <v>120</v>
@@ -4371,8 +4428,9 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>168</v>
+      <c r="J29" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K29" t="s">
         <v>168</v>
@@ -4412,8 +4470,8 @@
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>14</v>
+      <c r="A30" t="s">
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>123</v>
@@ -4439,8 +4497,9 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>168</v>
+      <c r="J30" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K30" t="s">
         <v>169</v>
@@ -4486,8 +4545,8 @@
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>14</v>
+      <c r="A31" t="s">
+        <v>184</v>
       </c>
       <c r="B31" t="s">
         <v>129</v>
@@ -4513,8 +4572,9 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="25" t="s">
-        <v>169</v>
+      <c r="J31" s="25" t="str">
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K31" t="s">
         <v>169</v>
@@ -4548,8 +4608,8 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>9</v>
+      <c r="A32" t="s">
+        <v>179</v>
       </c>
       <c r="B32" t="s">
         <v>131</v>
@@ -4576,8 +4636,8 @@
         <v>1</v>
       </c>
       <c r="J32" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K32" t="s">
         <v>167</v>
@@ -4626,8 +4686,8 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>9</v>
+      <c r="A33" t="s">
+        <v>179</v>
       </c>
       <c r="B33" t="s">
         <v>135</v>
@@ -4654,8 +4714,8 @@
         <v>1</v>
       </c>
       <c r="J33" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>High</v>
       </c>
       <c r="K33" t="s">
         <v>167</v>
@@ -4704,8 +4764,8 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>15</v>
+      <c r="A34" t="s">
+        <v>185</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
@@ -4732,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
       <c r="K34" t="s">
@@ -4791,8 +4851,8 @@
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>15</v>
+      <c r="A35" t="s">
+        <v>185</v>
       </c>
       <c r="B35" t="s">
         <v>140</v>
@@ -4819,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
       <c r="K35" t="s">
@@ -4878,8 +4938,8 @@
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>15</v>
+      <c r="A36" t="s">
+        <v>185</v>
       </c>
       <c r="B36" t="s">
         <v>141</v>
@@ -4906,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
       <c r="K36" t="str">
@@ -4948,8 +5008,8 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>16</v>
+      <c r="A37" t="s">
+        <v>186</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
@@ -4976,8 +5036,8 @@
         <v>0</v>
       </c>
       <c r="J37" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K37" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -5024,8 +5084,8 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>16</v>
+      <c r="A38" t="s">
+        <v>186</v>
       </c>
       <c r="B38" t="s">
         <v>145</v>
@@ -5052,8 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J38" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K38" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -5100,8 +5160,8 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>16</v>
+      <c r="A39" t="s">
+        <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
@@ -5128,8 +5188,8 @@
         <v>0</v>
       </c>
       <c r="J39" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K39" t="s">
         <v>168</v>
@@ -5175,8 +5235,8 @@
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>16</v>
+      <c r="A40" t="s">
+        <v>186</v>
       </c>
       <c r="B40" t="s">
         <v>148</v>
@@ -5203,8 +5263,8 @@
         <v>0</v>
       </c>
       <c r="J40" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K40" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -5254,8 +5314,8 @@
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>16</v>
+      <c r="A41" t="s">
+        <v>186</v>
       </c>
       <c r="B41" t="s">
         <v>149</v>
@@ -5282,8 +5342,8 @@
         <v>0</v>
       </c>
       <c r="J41" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K41" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -5333,8 +5393,8 @@
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>16</v>
+      <c r="A42" t="s">
+        <v>186</v>
       </c>
       <c r="B42" t="s">
         <v>150</v>
@@ -5361,8 +5421,8 @@
         <v>0</v>
       </c>
       <c r="J42" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K42" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -5412,8 +5472,8 @@
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
+      <c r="A43" t="s">
+        <v>172</v>
       </c>
       <c r="B43" t="s">
         <v>153</v>
@@ -5440,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K43" t="str">
@@ -5485,8 +5545,8 @@
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
+      <c r="A44" t="s">
+        <v>172</v>
       </c>
       <c r="B44" t="s">
         <v>156</v>
@@ -5513,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K44" t="str">
@@ -5558,8 +5618,8 @@
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
+      <c r="A45" t="s">
+        <v>172</v>
       </c>
       <c r="B45" t="s">
         <v>157</v>
@@ -5586,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
       <c r="K45" t="str">
@@ -5631,8 +5691,8 @@
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>16</v>
+      <c r="A46" t="s">
+        <v>186</v>
       </c>
       <c r="B46" t="s">
         <v>146</v>
@@ -5659,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
       <c r="K46" t="s">
@@ -5706,8 +5766,8 @@
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>16</v>
+      <c r="A47" t="s">
+        <v>186</v>
       </c>
       <c r="B47" t="s">
         <v>151</v>
@@ -5734,8 +5794,8 @@
         <v>0</v>
       </c>
       <c r="J47" s="25" t="str">
-        <f>IF(OR(Table2[[#This Row],[% Serious AE]] &lt; 0.2, Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR(Table2[[#This Row],[% Serious AE]] &gt;= 0.5, Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC(Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
       </c>
       <c r="K47" t="str">
         <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
@@ -5797,13 +5857,13 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="50.75" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
@@ -5824,8 +5884,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -5838,8 +5898,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -5852,8 +5912,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -5866,8 +5926,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -5880,8 +5940,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -5894,8 +5954,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -5908,8 +5968,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -5922,8 +5982,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -5936,8 +5996,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -5950,8 +6010,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" t="s">
+        <v>171</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -5964,8 +6024,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -5978,8 +6038,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
+      <c r="A13" t="s">
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -5992,8 +6052,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
+      <c r="A14" t="s">
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -6006,8 +6066,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
+      <c r="A15" t="s">
+        <v>171</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -6020,8 +6080,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
+      <c r="A16" t="s">
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -6034,8 +6094,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
+      <c r="A17" t="s">
+        <v>180</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -6048,8 +6108,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
+      <c r="A18" t="s">
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -6062,8 +6122,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10</v>
+      <c r="A19" t="s">
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -6076,8 +6136,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>10</v>
+      <c r="A20" t="s">
+        <v>180</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -6090,8 +6150,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>10</v>
+      <c r="A21" t="s">
+        <v>180</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -6104,8 +6164,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
+      <c r="A22" t="s">
+        <v>180</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -6118,8 +6178,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10</v>
+      <c r="A23" t="s">
+        <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -6132,8 +6192,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10</v>
+      <c r="A24" t="s">
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -6146,8 +6206,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>10</v>
+      <c r="A25" t="s">
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -6160,8 +6220,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>10</v>
+      <c r="A26" t="s">
+        <v>180</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -6174,8 +6234,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
+      <c r="A27" t="s">
+        <v>180</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -6188,8 +6248,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
+      <c r="A28" t="s">
+        <v>180</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -6202,8 +6262,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10</v>
+      <c r="A29" t="s">
+        <v>180</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -6216,8 +6276,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10</v>
+      <c r="A30" t="s">
+        <v>180</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
@@ -6230,8 +6290,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>11</v>
+      <c r="A31" t="s">
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
@@ -6244,8 +6304,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>11</v>
+      <c r="A32" t="s">
+        <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
@@ -6258,8 +6318,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4</v>
+      <c r="A33" t="s">
+        <v>174</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -6272,8 +6332,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4</v>
+      <c r="A34" t="s">
+        <v>174</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -6286,8 +6346,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
+      <c r="A35" t="s">
+        <v>174</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
@@ -6300,8 +6360,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4</v>
+      <c r="A36" t="s">
+        <v>174</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -6314,8 +6374,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3</v>
+      <c r="A37" t="s">
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -6328,8 +6388,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3</v>
+      <c r="A38" t="s">
+        <v>173</v>
       </c>
       <c r="B38" t="s">
         <v>82</v>
@@ -6342,8 +6402,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>12</v>
+      <c r="A39" t="s">
+        <v>182</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -6356,8 +6416,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>12</v>
+      <c r="A40" t="s">
+        <v>182</v>
       </c>
       <c r="B40" t="s">
         <v>85</v>
@@ -6370,8 +6430,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>12</v>
+      <c r="A41" t="s">
+        <v>182</v>
       </c>
       <c r="B41" t="s">
         <v>85</v>
@@ -6384,8 +6444,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>12</v>
+      <c r="A42" t="s">
+        <v>182</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
@@ -6398,8 +6458,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>12</v>
+      <c r="A43" t="s">
+        <v>182</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
@@ -6412,8 +6472,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>12</v>
+      <c r="A44" t="s">
+        <v>182</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
@@ -6426,8 +6486,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>12</v>
+      <c r="A45" t="s">
+        <v>182</v>
       </c>
       <c r="B45" t="s">
         <v>85</v>
@@ -6440,8 +6500,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>12</v>
+      <c r="A46" t="s">
+        <v>182</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -6454,8 +6514,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>12</v>
+      <c r="A47" t="s">
+        <v>182</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
@@ -6468,8 +6528,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>12</v>
+      <c r="A48" t="s">
+        <v>182</v>
       </c>
       <c r="B48" t="s">
         <v>92</v>
@@ -6482,8 +6542,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>12</v>
+      <c r="A49" t="s">
+        <v>182</v>
       </c>
       <c r="B49" t="s">
         <v>92</v>
@@ -6496,8 +6556,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>12</v>
+      <c r="A50" t="s">
+        <v>182</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
@@ -6510,8 +6570,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>12</v>
+      <c r="A51" t="s">
+        <v>182</v>
       </c>
       <c r="B51" t="s">
         <v>92</v>
@@ -6524,8 +6584,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>12</v>
+      <c r="A52" t="s">
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>92</v>
@@ -6538,8 +6598,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>12</v>
+      <c r="A53" t="s">
+        <v>182</v>
       </c>
       <c r="B53" t="s">
         <v>92</v>
@@ -6552,8 +6612,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>12</v>
+      <c r="A54" t="s">
+        <v>182</v>
       </c>
       <c r="B54" t="s">
         <v>92</v>
@@ -6566,8 +6626,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>12</v>
+      <c r="A55" t="s">
+        <v>182</v>
       </c>
       <c r="B55" t="s">
         <v>92</v>
@@ -6580,8 +6640,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>12</v>
+      <c r="A56" t="s">
+        <v>182</v>
       </c>
       <c r="B56" t="s">
         <v>92</v>
@@ -6594,8 +6654,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>12</v>
+      <c r="A57" t="s">
+        <v>182</v>
       </c>
       <c r="B57" t="s">
         <v>93</v>
@@ -6608,8 +6668,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>12</v>
+      <c r="A58" t="s">
+        <v>182</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
@@ -6622,8 +6682,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>12</v>
+      <c r="A59" t="s">
+        <v>182</v>
       </c>
       <c r="B59" t="s">
         <v>93</v>
@@ -6636,8 +6696,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>12</v>
+      <c r="A60" t="s">
+        <v>182</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
@@ -6650,8 +6710,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>12</v>
+      <c r="A61" t="s">
+        <v>182</v>
       </c>
       <c r="B61" t="s">
         <v>93</v>
@@ -6664,8 +6724,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>12</v>
+      <c r="A62" t="s">
+        <v>182</v>
       </c>
       <c r="B62" t="s">
         <v>93</v>
@@ -6678,8 +6738,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>12</v>
+      <c r="A63" t="s">
+        <v>182</v>
       </c>
       <c r="B63" t="s">
         <v>93</v>
@@ -6692,8 +6752,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>12</v>
+      <c r="A64" t="s">
+        <v>182</v>
       </c>
       <c r="B64" t="s">
         <v>93</v>
@@ -6706,8 +6766,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>12</v>
+      <c r="A65" t="s">
+        <v>182</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
@@ -6720,8 +6780,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>5</v>
+      <c r="A66" t="s">
+        <v>175</v>
       </c>
       <c r="B66" t="s">
         <v>95</v>
@@ -6734,8 +6794,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>5</v>
+      <c r="A67" t="s">
+        <v>175</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
@@ -6748,8 +6808,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>5</v>
+      <c r="A68" t="s">
+        <v>175</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
@@ -6762,8 +6822,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>5</v>
+      <c r="A69" t="s">
+        <v>175</v>
       </c>
       <c r="B69" t="s">
         <v>97</v>
@@ -6776,8 +6836,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5</v>
+      <c r="A70" t="s">
+        <v>175</v>
       </c>
       <c r="B70" t="s">
         <v>98</v>
@@ -6790,8 +6850,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>5</v>
+      <c r="A71" t="s">
+        <v>175</v>
       </c>
       <c r="B71" t="s">
         <v>98</v>
@@ -6804,8 +6864,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>5</v>
+      <c r="A72" t="s">
+        <v>175</v>
       </c>
       <c r="B72" t="s">
         <v>99</v>
@@ -6818,8 +6878,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>5</v>
+      <c r="A73" t="s">
+        <v>175</v>
       </c>
       <c r="B73" t="s">
         <v>99</v>
@@ -6832,8 +6892,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>5</v>
+      <c r="A74" t="s">
+        <v>175</v>
       </c>
       <c r="B74" t="s">
         <v>100</v>
@@ -6846,8 +6906,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>5</v>
+      <c r="A75" t="s">
+        <v>175</v>
       </c>
       <c r="B75" t="s">
         <v>100</v>
@@ -6860,8 +6920,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
+      <c r="A76" t="s">
+        <v>176</v>
       </c>
       <c r="B76" t="s">
         <v>104</v>
@@ -6874,8 +6934,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>6</v>
+      <c r="A77" t="s">
+        <v>176</v>
       </c>
       <c r="B77" t="s">
         <v>106</v>
@@ -6888,8 +6948,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>6</v>
+      <c r="A78" t="s">
+        <v>176</v>
       </c>
       <c r="B78" t="s">
         <v>107</v>
@@ -6902,8 +6962,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>6</v>
+      <c r="A79" t="s">
+        <v>176</v>
       </c>
       <c r="B79" t="s">
         <v>104</v>
@@ -6916,8 +6976,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>6</v>
+      <c r="A80" t="s">
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>106</v>
@@ -6930,8 +6990,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>6</v>
+      <c r="A81" t="s">
+        <v>176</v>
       </c>
       <c r="B81" t="s">
         <v>107</v>
@@ -6944,8 +7004,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>13</v>
+      <c r="A82" t="s">
+        <v>183</v>
       </c>
       <c r="B82" t="s">
         <v>109</v>
@@ -6958,8 +7018,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>13</v>
+      <c r="A83" t="s">
+        <v>183</v>
       </c>
       <c r="B83" t="s">
         <v>110</v>
@@ -6972,8 +7032,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>13</v>
+      <c r="A84" t="s">
+        <v>183</v>
       </c>
       <c r="B84" t="s">
         <v>110</v>
@@ -6986,8 +7046,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>7</v>
+      <c r="A85" t="s">
+        <v>177</v>
       </c>
       <c r="B85" t="s">
         <v>113</v>
@@ -7000,8 +7060,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>7</v>
+      <c r="A86" t="s">
+        <v>177</v>
       </c>
       <c r="B86" t="s">
         <v>113</v>
@@ -7014,8 +7074,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>7</v>
+      <c r="A87" t="s">
+        <v>177</v>
       </c>
       <c r="B87" t="s">
         <v>115</v>
@@ -7028,8 +7088,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>7</v>
+      <c r="A88" t="s">
+        <v>177</v>
       </c>
       <c r="B88" t="s">
         <v>115</v>
@@ -7042,8 +7102,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>8</v>
+      <c r="A89" t="s">
+        <v>178</v>
       </c>
       <c r="B89" t="s">
         <v>117</v>
@@ -7056,8 +7116,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>8</v>
+      <c r="A90" t="s">
+        <v>178</v>
       </c>
       <c r="B90" t="s">
         <v>117</v>
@@ -7070,8 +7130,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>8</v>
+      <c r="A91" t="s">
+        <v>178</v>
       </c>
       <c r="B91" t="s">
         <v>117</v>
@@ -7084,8 +7144,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>8</v>
+      <c r="A92" t="s">
+        <v>178</v>
       </c>
       <c r="B92" t="s">
         <v>117</v>
@@ -7098,8 +7158,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>8</v>
+      <c r="A93" t="s">
+        <v>178</v>
       </c>
       <c r="B93" t="s">
         <v>117</v>
@@ -7112,8 +7172,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>8</v>
+      <c r="A94" t="s">
+        <v>178</v>
       </c>
       <c r="B94" t="s">
         <v>117</v>
@@ -7126,8 +7186,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>8</v>
+      <c r="A95" t="s">
+        <v>178</v>
       </c>
       <c r="B95" t="s">
         <v>117</v>
@@ -7140,8 +7200,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>8</v>
+      <c r="A96" t="s">
+        <v>178</v>
       </c>
       <c r="B96" t="s">
         <v>117</v>
@@ -7154,8 +7214,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>8</v>
+      <c r="A97" t="s">
+        <v>178</v>
       </c>
       <c r="B97" t="s">
         <v>120</v>
@@ -7168,8 +7228,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>8</v>
+      <c r="A98" t="s">
+        <v>178</v>
       </c>
       <c r="B98" t="s">
         <v>120</v>
@@ -7182,8 +7242,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>8</v>
+      <c r="A99" t="s">
+        <v>178</v>
       </c>
       <c r="B99" t="s">
         <v>120</v>
@@ -7196,8 +7256,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>8</v>
+      <c r="A100" t="s">
+        <v>178</v>
       </c>
       <c r="B100" t="s">
         <v>120</v>
@@ -7210,8 +7270,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>8</v>
+      <c r="A101" t="s">
+        <v>178</v>
       </c>
       <c r="B101" t="s">
         <v>120</v>
@@ -7224,8 +7284,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>8</v>
+      <c r="A102" t="s">
+        <v>178</v>
       </c>
       <c r="B102" t="s">
         <v>120</v>
@@ -7238,8 +7298,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>8</v>
+      <c r="A103" t="s">
+        <v>178</v>
       </c>
       <c r="B103" t="s">
         <v>120</v>
@@ -7252,8 +7312,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>8</v>
+      <c r="A104" t="s">
+        <v>178</v>
       </c>
       <c r="B104" t="s">
         <v>120</v>
@@ -7266,8 +7326,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>14</v>
+      <c r="A105" t="s">
+        <v>184</v>
       </c>
       <c r="B105" t="s">
         <v>123</v>
@@ -7280,8 +7340,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>14</v>
+      <c r="A106" t="s">
+        <v>184</v>
       </c>
       <c r="B106" t="s">
         <v>123</v>
@@ -7294,8 +7354,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>14</v>
+      <c r="A107" t="s">
+        <v>184</v>
       </c>
       <c r="B107" t="s">
         <v>123</v>
@@ -7308,8 +7368,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>14</v>
+      <c r="A108" t="s">
+        <v>184</v>
       </c>
       <c r="B108" t="s">
         <v>123</v>
@@ -7322,8 +7382,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>14</v>
+      <c r="A109" t="s">
+        <v>184</v>
       </c>
       <c r="B109" t="s">
         <v>123</v>
@@ -7336,8 +7396,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>14</v>
+      <c r="A110" t="s">
+        <v>184</v>
       </c>
       <c r="B110" t="s">
         <v>123</v>
@@ -7350,8 +7410,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>14</v>
+      <c r="A111" t="s">
+        <v>184</v>
       </c>
       <c r="B111" t="s">
         <v>123</v>
@@ -7364,8 +7424,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>14</v>
+      <c r="A112" t="s">
+        <v>184</v>
       </c>
       <c r="B112" t="s">
         <v>123</v>
@@ -7378,8 +7438,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>14</v>
+      <c r="A113" t="s">
+        <v>184</v>
       </c>
       <c r="B113" t="s">
         <v>123</v>
@@ -7392,8 +7452,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>14</v>
+      <c r="A114" t="s">
+        <v>184</v>
       </c>
       <c r="B114" t="s">
         <v>123</v>
@@ -7406,8 +7466,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>14</v>
+      <c r="A115" t="s">
+        <v>184</v>
       </c>
       <c r="B115" t="s">
         <v>129</v>
@@ -7420,8 +7480,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>14</v>
+      <c r="A116" t="s">
+        <v>184</v>
       </c>
       <c r="B116" t="s">
         <v>129</v>
@@ -7434,8 +7494,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>14</v>
+      <c r="A117" t="s">
+        <v>184</v>
       </c>
       <c r="B117" t="s">
         <v>129</v>
@@ -7448,8 +7508,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>14</v>
+      <c r="A118" t="s">
+        <v>184</v>
       </c>
       <c r="B118" t="s">
         <v>129</v>
@@ -7462,8 +7522,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>14</v>
+      <c r="A119" t="s">
+        <v>184</v>
       </c>
       <c r="B119" t="s">
         <v>129</v>
@@ -7476,8 +7536,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>14</v>
+      <c r="A120" t="s">
+        <v>184</v>
       </c>
       <c r="B120" t="s">
         <v>129</v>
@@ -7490,8 +7550,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>14</v>
+      <c r="A121" t="s">
+        <v>184</v>
       </c>
       <c r="B121" t="s">
         <v>129</v>
@@ -7504,8 +7564,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>14</v>
+      <c r="A122" t="s">
+        <v>184</v>
       </c>
       <c r="B122" t="s">
         <v>129</v>
@@ -7518,8 +7578,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>14</v>
+      <c r="A123" t="s">
+        <v>184</v>
       </c>
       <c r="B123" t="s">
         <v>129</v>
@@ -7532,8 +7592,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>14</v>
+      <c r="A124" t="s">
+        <v>184</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
@@ -7546,8 +7606,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>9</v>
+      <c r="A125" t="s">
+        <v>179</v>
       </c>
       <c r="B125" t="s">
         <v>131</v>
@@ -7560,8 +7620,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>9</v>
+      <c r="A126" t="s">
+        <v>179</v>
       </c>
       <c r="B126" t="s">
         <v>131</v>
@@ -7574,8 +7634,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>9</v>
+      <c r="A127" t="s">
+        <v>179</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
@@ -7588,8 +7648,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>9</v>
+      <c r="A128" t="s">
+        <v>179</v>
       </c>
       <c r="B128" t="s">
         <v>131</v>
@@ -7602,8 +7662,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>9</v>
+      <c r="A129" t="s">
+        <v>179</v>
       </c>
       <c r="B129" t="s">
         <v>131</v>
@@ -7616,8 +7676,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>9</v>
+      <c r="A130" t="s">
+        <v>179</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -7630,8 +7690,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>9</v>
+      <c r="A131" t="s">
+        <v>179</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
@@ -7644,8 +7704,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>9</v>
+      <c r="A132" t="s">
+        <v>179</v>
       </c>
       <c r="B132" t="s">
         <v>135</v>
@@ -7658,8 +7718,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>9</v>
+      <c r="A133" t="s">
+        <v>179</v>
       </c>
       <c r="B133" t="s">
         <v>135</v>
@@ -7672,8 +7732,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>9</v>
+      <c r="A134" t="s">
+        <v>179</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
@@ -7686,8 +7746,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>9</v>
+      <c r="A135" t="s">
+        <v>179</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
@@ -7700,8 +7760,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>9</v>
+      <c r="A136" t="s">
+        <v>179</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
@@ -7714,8 +7774,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>9</v>
+      <c r="A137" t="s">
+        <v>179</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
@@ -7728,8 +7788,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>9</v>
+      <c r="A138" t="s">
+        <v>179</v>
       </c>
       <c r="B138" t="s">
         <v>135</v>
@@ -7742,8 +7802,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>15</v>
+      <c r="A139" t="s">
+        <v>185</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
@@ -7756,8 +7816,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>15</v>
+      <c r="A140" t="s">
+        <v>185</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
@@ -7770,8 +7830,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>15</v>
+      <c r="A141" t="s">
+        <v>185</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
@@ -7784,8 +7844,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>16</v>
+      <c r="A142" t="s">
+        <v>186</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -7798,8 +7858,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>16</v>
+      <c r="A143" t="s">
+        <v>186</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
@@ -7812,8 +7872,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>16</v>
+      <c r="A144" t="s">
+        <v>186</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -7826,8 +7886,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>16</v>
+      <c r="A145" t="s">
+        <v>186</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -7840,8 +7900,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>16</v>
+      <c r="A146" t="s">
+        <v>186</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
@@ -7854,8 +7914,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>16</v>
+      <c r="A147" t="s">
+        <v>186</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
@@ -7868,8 +7928,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>16</v>
+      <c r="A148" t="s">
+        <v>186</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
@@ -7882,8 +7942,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>16</v>
+      <c r="A149" t="s">
+        <v>186</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
@@ -7896,8 +7956,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>16</v>
+      <c r="A150" t="s">
+        <v>186</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
@@ -7910,8 +7970,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>16</v>
+      <c r="A151" t="s">
+        <v>186</v>
       </c>
       <c r="B151" t="s">
         <v>148</v>
@@ -7924,8 +7984,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>16</v>
+      <c r="A152" t="s">
+        <v>186</v>
       </c>
       <c r="B152" t="s">
         <v>149</v>
@@ -7938,8 +7998,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>16</v>
+      <c r="A153" t="s">
+        <v>186</v>
       </c>
       <c r="B153" t="s">
         <v>149</v>
@@ -7952,8 +8012,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>16</v>
+      <c r="A154" t="s">
+        <v>186</v>
       </c>
       <c r="B154" t="s">
         <v>150</v>
@@ -7966,8 +8026,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>16</v>
+      <c r="A155" t="s">
+        <v>186</v>
       </c>
       <c r="B155" t="s">
         <v>150</v>
@@ -7980,8 +8040,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>16</v>
+      <c r="A156" t="s">
+        <v>186</v>
       </c>
       <c r="B156" t="s">
         <v>151</v>
@@ -7994,8 +8054,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>16</v>
+      <c r="A157" t="s">
+        <v>186</v>
       </c>
       <c r="B157" t="s">
         <v>151</v>
@@ -8008,8 +8068,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>2</v>
+      <c r="A158" t="s">
+        <v>172</v>
       </c>
       <c r="B158" t="s">
         <v>153</v>
@@ -8022,8 +8082,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>2</v>
+      <c r="A159" t="s">
+        <v>172</v>
       </c>
       <c r="B159" t="s">
         <v>153</v>
@@ -8036,8 +8096,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>2</v>
+      <c r="A160" t="s">
+        <v>172</v>
       </c>
       <c r="B160" t="s">
         <v>153</v>
@@ -8050,8 +8110,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>2</v>
+      <c r="A161" t="s">
+        <v>172</v>
       </c>
       <c r="B161" t="s">
         <v>156</v>
@@ -8064,8 +8124,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>2</v>
+      <c r="A162" t="s">
+        <v>172</v>
       </c>
       <c r="B162" t="s">
         <v>156</v>
@@ -8078,8 +8138,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>2</v>
+      <c r="A163" t="s">
+        <v>172</v>
       </c>
       <c r="B163" t="s">
         <v>156</v>
@@ -8092,8 +8152,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>2</v>
+      <c r="A164" t="s">
+        <v>172</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
@@ -8106,8 +8166,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>2</v>
+      <c r="A165" t="s">
+        <v>172</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
@@ -8120,8 +8180,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>2</v>
+      <c r="A166" t="s">
+        <v>172</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
@@ -8151,6 +8211,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -8175,8 +8236,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
+      <c r="A2" t="s">
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>120</v>
@@ -8204,11 +8265,12 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
@@ -8241,8 +8303,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -8264,8 +8326,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -8287,8 +8349,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -8310,8 +8372,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>173</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -8333,8 +8395,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
@@ -8353,8 +8415,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
@@ -8373,8 +8435,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
+      <c r="A8" t="s">
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
@@ -8393,8 +8455,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -8413,8 +8475,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
+      <c r="A10" t="s">
+        <v>175</v>
       </c>
       <c r="B10" t="s">
         <v>100</v>
@@ -8433,8 +8495,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>176</v>
       </c>
       <c r="B11" t="s">
         <v>104</v>
@@ -8442,8 +8504,8 @@
       <c r="C11" t="s">
         <v>105</v>
       </c>
-      <c r="D11">
-        <v>4</v>
+      <c r="D11" t="s">
+        <v>174</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -8456,8 +8518,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>106</v>
@@ -8479,8 +8541,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>107</v>
@@ -8502,8 +8564,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
+      <c r="A14" t="s">
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
@@ -8522,8 +8584,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
+      <c r="A15" t="s">
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>153</v>
@@ -8542,8 +8604,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
+      <c r="A16" t="s">
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>156</v>
@@ -8562,8 +8624,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
+      <c r="A17" t="s">
+        <v>172</v>
       </c>
       <c r="B17" t="s">
         <v>157</v>
@@ -8593,12 +8655,13 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA338F0-BFD0-4788-963F-7C359787317C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
@@ -8622,8 +8685,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -8639,8 +8702,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -8656,8 +8719,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -8673,8 +8736,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>173</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -8690,8 +8753,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
+      <c r="A6" t="s">
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -8707,8 +8770,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>95</v>
@@ -8724,8 +8787,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
+      <c r="A8" t="s">
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
@@ -8741,8 +8804,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
+      <c r="A9" t="s">
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
@@ -8758,8 +8821,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
+      <c r="A10" t="s">
+        <v>175</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -8775,8 +8838,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
+      <c r="A11" t="s">
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
@@ -8792,8 +8855,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>104</v>
@@ -8809,8 +8872,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
@@ -8826,8 +8889,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
@@ -8843,8 +8906,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
+      <c r="A15" t="s">
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>113</v>
@@ -8854,8 +8917,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7</v>
+      <c r="A16" t="s">
+        <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>115</v>
@@ -8871,8 +8934,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8</v>
+      <c r="A17" t="s">
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -8888,8 +8951,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
+      <c r="A18" t="s">
+        <v>178</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
@@ -8905,8 +8968,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9</v>
+      <c r="A19" t="s">
+        <v>179</v>
       </c>
       <c r="B19" t="s">
         <v>131</v>
@@ -8922,8 +8985,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
+      <c r="A20" t="s">
+        <v>179</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
@@ -8939,8 +9002,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
+      <c r="A21" t="s">
+        <v>172</v>
       </c>
       <c r="B21" t="s">
         <v>153</v>
@@ -8956,8 +9019,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
+      <c r="A22" t="s">
+        <v>172</v>
       </c>
       <c r="B22" t="s">
         <v>156</v>
@@ -8973,8 +9036,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
+      <c r="A23" t="s">
+        <v>172</v>
       </c>
       <c r="B23" t="s">
         <v>157</v>

--- a/variable-dosing_7119.xlsx
+++ b/variable-dosing_7119.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaston\Desktop\GBM-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4923BEC5-A01E-487F-8EA7-A2A117D4EBED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3FD21B34-6619-4FAE-9DE1-7E42F973D950}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Concomitant" sheetId="6" r:id="rId5"/>
     <sheet name="Concomitant Tem" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="988" uniqueCount="187">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1004" uniqueCount="187">
   <si>
     <t>Phase</t>
   </si>
@@ -1230,7 +1227,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1274,6 +1271,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1557,31 +1557,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Studies"/>
-      <sheetName val="Arms"/>
-      <sheetName val="Dropout"/>
-      <sheetName val="Neoadjuvant"/>
-      <sheetName val="Concomitant"/>
-      <sheetName val="Concomitant Tem"/>
-      <sheetName val="Burden Rank"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2222,8 +2197,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2279,7 @@
       <c r="J1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="27" t="s">
         <v>170</v>
       </c>
       <c r="L1" s="8" t="s">
@@ -2436,11 +2411,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K2" t="s">
-        <v>169</v>
+      <c r="K2" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -2522,11 +2497,11 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Low</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L3" t="b">
@@ -2585,11 +2560,11 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J4" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="26" t="s">
         <v>169</v>
       </c>
       <c r="L4" s="11" t="b">
@@ -2674,11 +2649,11 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J5" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="26" t="s">
         <v>169</v>
       </c>
       <c r="L5" s="11" t="b">
@@ -2752,11 +2727,11 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J6" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="26" t="s">
         <v>169</v>
       </c>
       <c r="L6" s="11" t="b">
@@ -2830,13 +2805,12 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J7" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K7" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="K7" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L7" s="11" t="b">
         <v>0</v>
@@ -2900,12 +2874,12 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J8" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K8" t="s">
-        <v>167</v>
+      <c r="K8" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L8" s="11" t="b">
         <v>0</v>
@@ -2969,13 +2943,12 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J9" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K9" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="K9" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -3048,13 +3021,12 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K10" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
+      <c r="J10" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -3112,12 +3084,12 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J11" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K11" t="s">
-        <v>169</v>
+      <c r="K11" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L11" s="12" t="b">
         <v>1</v>
@@ -3207,12 +3179,12 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J12" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K12" t="s">
-        <v>169</v>
+      <c r="K12" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -3285,11 +3257,11 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J13" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L13" t="b">
@@ -3363,11 +3335,11 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J14" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L14" t="b">
@@ -3441,11 +3413,11 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J15" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L15" t="b">
@@ -3519,12 +3491,12 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K16" t="s">
-        <v>169</v>
+      <c r="J16" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -3597,12 +3569,12 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K17" t="s">
-        <v>169</v>
+      <c r="J17" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -3675,12 +3647,12 @@
       <c r="I18" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K18" t="s">
-        <v>169</v>
+      <c r="J18" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -3753,12 +3725,12 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K19" t="s">
-        <v>169</v>
+      <c r="J19" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -3834,12 +3806,12 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K20" t="s">
-        <v>169</v>
+      <c r="J20" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -3915,13 +3887,12 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J21" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K21" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="K21" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -3970,13 +3941,12 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J22" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K22" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="K22" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -4025,13 +3995,12 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J23" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K23" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="K23" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -4083,11 +4052,11 @@
       <c r="I24" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J24" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L24" t="b">
@@ -4164,11 +4133,11 @@
       <c r="I25" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J25" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L25" t="b">
@@ -4245,12 +4214,12 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-      <c r="J26" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J26" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K26" t="s">
-        <v>169</v>
+      <c r="K26" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -4299,11 +4268,11 @@
       <c r="I27" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K27" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L27" t="b">
@@ -4359,11 +4328,11 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J28" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="26" t="s">
         <v>167</v>
       </c>
       <c r="L28" t="b">
@@ -4428,11 +4397,11 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J29" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="26" t="s">
         <v>168</v>
       </c>
       <c r="L29" t="b">
@@ -4497,11 +4466,11 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J30" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="26" t="s">
         <v>169</v>
       </c>
       <c r="L30" t="b">
@@ -4572,11 +4541,11 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J31" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="26" t="s">
         <v>169</v>
       </c>
       <c r="L31" t="b">
@@ -4635,11 +4604,11 @@
       <c r="I32" t="b">
         <v>1</v>
       </c>
-      <c r="J32" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J32" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="26" t="s">
         <v>167</v>
       </c>
       <c r="L32" t="b">
@@ -4713,11 +4682,11 @@
       <c r="I33" t="b">
         <v>1</v>
       </c>
-      <c r="J33" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J33" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>High</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="26" t="s">
         <v>167</v>
       </c>
       <c r="L33" t="b">
@@ -4791,12 +4760,12 @@
       <c r="I34" t="b">
         <v>1</v>
       </c>
-      <c r="J34" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J34" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K34" t="s">
-        <v>167</v>
+      <c r="K34" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -4878,12 +4847,12 @@
       <c r="I35" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J35" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K35" t="s">
-        <v>167</v>
+      <c r="K35" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -4965,13 +4934,12 @@
       <c r="I36" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J36" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Medium</v>
       </c>
-      <c r="K36" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="K36" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -5035,13 +5003,12 @@
       <c r="I37" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J37" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K37" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="K37" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -5111,13 +5078,12 @@
       <c r="I38" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J38" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K38" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="K38" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -5187,12 +5153,12 @@
       <c r="I39" t="b">
         <v>0</v>
       </c>
-      <c r="J39" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J39" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K39" t="s">
-        <v>168</v>
+      <c r="K39" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -5262,13 +5228,12 @@
       <c r="I40" t="b">
         <v>0</v>
       </c>
-      <c r="J40" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J40" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K40" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="K40" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -5341,13 +5306,12 @@
       <c r="I41" t="b">
         <v>0</v>
       </c>
-      <c r="J41" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J41" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K41" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="K41" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -5420,13 +5384,12 @@
       <c r="I42" t="b">
         <v>0</v>
       </c>
-      <c r="J42" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J42" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K42" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="K42" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -5499,13 +5462,12 @@
       <c r="I43" t="b">
         <v>0</v>
       </c>
-      <c r="J43" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K43" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J43" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -5572,13 +5534,12 @@
       <c r="I44" t="b">
         <v>0</v>
       </c>
-      <c r="J44" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K44" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J44" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -5645,13 +5606,12 @@
       <c r="I45" t="b">
         <v>0</v>
       </c>
-      <c r="J45" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
-        <v>High</v>
-      </c>
-      <c r="K45" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>High</v>
+      <c r="J45" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -5718,12 +5678,12 @@
       <c r="I46" t="b">
         <v>0</v>
       </c>
-      <c r="J46" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J46" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K46" t="s">
-        <v>168</v>
+      <c r="K46" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -5793,13 +5753,12 @@
       <c r="I47" t="b">
         <v>0</v>
       </c>
-      <c r="J47" s="25" t="str">
-        <f>IF(OR(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), AND(Table2[[#This Row],[Concomitant]] = TRUE, Table2[[#This Row],[Adjuvant]] = TRUE)), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
+      <c r="J47" s="28" t="str">
+        <f>IF(OR(AND(Table2[[#This Row],[Radiation]] = TRUE, Table2[[#This Row],[Universal IV]] = TRUE), Table2[[#This Row],[Surgery]] = TRUE), "High",  IF(AND(Table2[[#This Row],[Radiation]] = FALSE, Table2[[#This Row],[Universal IV]] = FALSE), "Low", "Medium"))</f>
         <v>Low</v>
       </c>
-      <c r="K47" t="str">
-        <f>IF(OR([1]!Table2[[#This Row],[% Serious AE]] &lt; 0.2, [1]!Table2[[#This Row],[% Non Serious AE]] &lt; 0.25  ), "Low", IF(OR([1]!Table2[[#This Row],[% Serious AE]] &gt;= 0.5, [1]!Table2[[#This Row],[% Non Serious AE]] &gt;= _xlfn.PERCENTILE.INC([1]!Table2[% Non Serious AE], 0.66)),  "High", "Medium"))</f>
-        <v>Medium</v>
+      <c r="K47" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -5858,7 +5817,7 @@
   <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8655,7 +8614,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA338F0-BFD0-4788-963F-7C359787317C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
